--- a/news_data/2016_02.xlsx
+++ b/news_data/2016_02.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="70">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,18 +22,99 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>3월 제주 여행, 관광지 가까운 올레제주도펜션 '하바다통나무집'</t>
+  </si>
+  <si>
+    <t>폭발적 관광수요의 제주도 호황, ‘코업시티호텔 하버뷰’ 공급</t>
+  </si>
+  <si>
+    <t>제주도, 오라관광단지 콘도등 재배치 요구…경관 조건부 의결</t>
+  </si>
+  <si>
+    <t>제주도관광협회 Best 관광인 강경희 씨</t>
+  </si>
+  <si>
+    <t>관광객 유입 급증하는 제주도, 코업시티호텔 하버뷰 공급</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 만족도 높인다…빅데이터 활용 정책 등 개발</t>
+  </si>
+  <si>
+    <t>제주관광 만족도 높일 빅데이터 협업 개막..신한카드·제주도·한은이 뭉쳤다</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 실시</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "굿잡제주"통한 취업기원 및 성공 이벤트 진행</t>
+  </si>
+  <si>
+    <t>제주도 中 관광객 수 여전히 증가하지만… 다시 안 온다</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회, 2월 친선골프대회 개최</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 뱃길관광 활성화 상품개발 착수</t>
+  </si>
+  <si>
+    <t>중국 관광객 몰린 제주도 서비스업 생산 증가율 최고치 기록</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 관서지역 레저스포츠 비즈니스 마케팅 전개</t>
+  </si>
+  <si>
+    <t>제주도-JTO, 일본관광 회복 위한 대대적 현지마케팅 총력</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 현지서 관광객 유치에 전력</t>
+  </si>
+  <si>
+    <t>제주도 민군복합형관광미항 개항 실무지원팀 운영</t>
+  </si>
+  <si>
+    <t>백령여행사, 백령 어르신 제주도 효도관광 지원</t>
+  </si>
+  <si>
+    <t>백령도 어르신들, 올해도 제주도 무료 효도관광</t>
+  </si>
+  <si>
+    <t>KT, 제주도와 '스마트 관광섬' MOU…총 225억 원 투자</t>
+  </si>
+  <si>
+    <t>제주도 관광협회, 제주여행 전문마켓 탐나오 사이트 활짝</t>
+  </si>
+  <si>
+    <t>제주도-KT 스마트 관광섬 구축 협력</t>
+  </si>
+  <si>
+    <t>자유투어, '제주도 버스관광' 상품 선보여</t>
+  </si>
+  <si>
+    <t>제주도 전역이 무료 와이파이 존…KT의 '스마트 관광 섬' 프로젝트</t>
+  </si>
+  <si>
+    <t>KT, 제주도를 스마트 관광섬으로 바꾼다</t>
+  </si>
+  <si>
+    <t>KT, 제주도와 손잡고 ‘스마트 관광섬’ 만든다</t>
+  </si>
+  <si>
+    <t>제주도-KT '스마트 관광 섬' 구축 협약</t>
+  </si>
+  <si>
+    <t>제주도, 요우커 '북적'…설 연휴 관광지·면세점 '북새통'</t>
+  </si>
+  <si>
+    <t>설연휴 제주도 국제크루즈 관광객 방문 잇따라</t>
+  </si>
+  <si>
+    <t>제주도 의료관광지원協 13명 위원 위촉</t>
+  </si>
+  <si>
     <t>KT-제주도, 와이파이 프리 ‘스마트 관광섬’ 조성</t>
   </si>
   <si>
-    <t>제주도, 요우커 '북적'…설 연휴 관광지·면세점 '북새통'</t>
-  </si>
-  <si>
-    <t>설연휴 제주도 국제크루즈 관광객 방문 잇따라</t>
-  </si>
-  <si>
-    <t>제주도 의료관광지원協 13명 위원 위촉</t>
-  </si>
-  <si>
     <t>관광객으로 제주도에 들어와…사라진 7187명</t>
   </si>
   <si>
@@ -52,22 +133,97 @@
     <t>제주도 제4기 의료관광지원협의회 출범...회장 이승희씨</t>
   </si>
   <si>
-    <t>KT-제주도, 와이파이 프리 ‘스마트 관광섬’ 조성-국민일보 시사 시사 &gt; 전체기사 KT-제주도, 와이파이 프리 ‘스마트 관광섬’ 조성 입력 : 2016-02-12 09:59 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 KT는 제주특별자치도와 함께 ‘제주 스마트 관광섬 구축을 위한 업무협약’을 체결했다고 12일 밝혔다. KT그룹은 225억원 규모를 투자해 스마트 관광섬 인프라를 구축한다는 계획이다. 먼저 KT는 5년간 143억원을 투자해 ‘기가 와이파이’ ‘기가 인터넷’ ‘기가 비콘’ 등 기가 인프라 기반의 네트워크 서비스를 제공키로 했다. 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있는 기가 와이파이 네트워크 1100여곳이 구축될 예정이다. KT 그룹사인 BC카드, KTH, KT IS와 공동으로 지리정보시스템(GIS) 기반의 스마트관광 플랫폼 구축에도 나선다. 김유나 기자 spring@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 직원 폭행에 내연녀 심부름까지…회장님의 ‘갑질’ 의혹 尹, 감사원 文조사 논란에 “대통령 언급 부적절” IMF 때와 ‘겉’은 같고 ‘속’은 다르다지만… “곳곳 뇌관 악재” 조종수 김건희, 칼 든 검사들…고교생이 그린 ‘윤석열차’ “날 해치려고?” 칼부림… 마약 하면 누구든 ‘괴물’ 돌변 킴 카다시안, 인스타에 벌금폭탄 왜? ‘가상화폐 뒷광고’ “죽은 물고기가 바다 가득”…마산만 청어 19t 집단폐사 ‘같은 사람?’ 전주환 얼굴, 신상공개 사진과 다른 이유 ‘열중쉬어’ 안한 尹…탁현민 “실수 인정 않으면 실패해” 아파트 현관문에 ‘개보기’ 빨간 낙서…CCTV 찍힌 범인 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 日 22세 거포 무라카미, 56호 홈런으로 신기록 썼다 주호영 “文, 왜 과민반응인지 모르겠다…조사 응해야” 경기도 ‘면접수당’ 문화 확산…지급 인증 기업 모집 임윤찬의 베토벤 ‘황제’ 실황 앨범 11월 발매 이재명, 尹 겨냥 “지금 휘두른 칼날, 스스로에게 되돌아갈 것” 광주의 10월 가을축제 향연…세계 최대 거리공연 첫선 [단독] 文정부 ‘최초 5G 상용화’ 180조원 홍보…과기부 “경제효과 측정 불가” 이재명, 감사원 文 조사에 “‘공포정치’ 尹정부에 강력 경고” 尹대통령, 北미사일에 “NSC 개최”…감사원 조사엔 “일반적 원칙” 완도수목원서 숲속음악회…‘가을산책 문화행사’ 풍성 尹 “북한 4000㎞ 미사일 발사…핵도발, 결연한 대응 직면할 것” 하나투어·질병관리청, ‘SAFETY CODE’ 공동 캠페인 대구경찰 텔레그램 가상자산 마약유통·투약 53명 입건 전남에 전국 첫 저메탄 조사료 종합유통센터 설치 尹, 북 탄도미사일 발사에 “무모한 핵도발, 결연한 대응 직면할 것”</t>
+    <t>3월 제주 여행, 관광지 가까운 올레제주도펜션 ‘하바다통나무집’ &lt; 생활 &lt; 문화/연예 &lt; 기사본문 - 시티저널 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 뉴스 지역뉴스 정치/행정 사회 경제 교육 문화/연예 스포츠/레저 웰빙/건강 정보과학 기자수첩 독자기고 커뮤니티 칼럼 사람들 자유게시판 구인 구직 아르바이트 포토&amp;영상 포토뉴스 영상뉴스 독자사진 카툰 기사제보 기사검색 검색 최종편집 : 2022-10-10 21:15 (월) 처음으로 로그인 회원가입 본문영역 이전 기사보기 다음 기사보기 3월 제주 여행, 관광지 가까운 올레제주도펜션 ‘하바다통나무집’ 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 문화/연예 생활 3월 제주 여행, 관광지 가까운 올레제주도펜션 ‘하바다통나무집’ 기자명 이정현 기자 입력 2016.02.29 19:42 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 사진 제공 제주도펜션하바다통나무집 [ 시티저널 이정현 기자 ] 3월이 다가오면서, 곧 전해질 봄 소식에 설레는 이들이 많지만, 아직 대다수 도시는 칼바람에 얼굴이 얼얼할 만큼 추운 것이 현실이다. 실제로, 일기예보에서는 지난 주말 눈이 내린 것에 이어 며칠 간 반짝 추위가 기승을 부릴 것으로 전망 했다. 다만, 따뜻한 남쪽에 위치한 제주도는 도심과 달리 일찍 봄 기운을 느낄 수 있을 것으로 전망된다. 언론 보도에 따르면, 올해 개나리와 진달래는 서울에서 3월 말일 경 개화할 것으로 보이지만, 제주도 서귀포에서는 중순이면 구경할 수 있을 것으로 기대된다. 이처럼 봄을 상징하는 꽃들을 일찍 볼 수 있는 3월 추천 여행지 제주도는 넘실대는 푸른 바다와 붉은 동백꽃, 노란 유채꽃 등의 어우러짐이 일품이며, 갖은 해산물은 물론 특산품인 감귤, 한라봉, 천혜향 등도 즐길 수 있다. 유명한 제주 올레길을 가족, 커플, 친구와 함께 산책하는 것도 빼놓을 수 없는 즐거움이다. 특히 ‘바당올레’를 가장 잘 재현한 코스로 꼽히는 올레8코스는 제주 숨은 비경인 존모살해변과 갯깍주상절리, 중문올레길 코스와 배릿내오름 등도 볼 수 있어 올레꾼들의 많은 사랑을 받고 있다. 이러한 올레 8코스의 종착지점으로 유명한 대평리 마을의 하바다통나무집펜션은 올레8코스 뿐아니라 각종 유명 관광지도 지척에 있어 관광하기에 편리한 제주도펜션으로 꼽힌다. 제주도 최고의 관광 메카인 중문관광단지가 자동차로 십분 거리에 있는 중문펜션일 뿐아니라 천지연 폭포, 박수기정, 성산일출봉, 한라산 등이 가까운 서귀포펜션인 것. 와이파이, 세스코, 세콤 등 각종 편의 시설과 바비큐 그릴을 포함한 취사 도구를 완벽히 갖춰 내 집처럼 편안하게 숙식할 수 있으며, 모든 객실이 복층독채펜션으로 되어 있어 다른 여행객에 방해 받지 않고 휴식을 취할 수 있다. 전 객실 바다전망을 바라볼 수 있는 바닷가펜션인 점도 특색으로 꼽힌다. 무엇보다 통나무와 목재를 사용해 친환경적으로 지어져 도심에서는 느낄 수 없는 산림욕 효과와 자연 속 힐링 효과도 즐길 수 있다. 통나무에서 뿜어져 나오는 피톤치드로 숲속에 있는 듯한 상쾌함을 느낄 수 있으며, 나무가 온습도를 알아서 조절해 사계절 언제든 보송보송한 실내에서 머물 수 있다고. 제주펜션 하바다통나무집팬션 서언아 대표는 “겨울철 제주도를 찾는 여행객들이 내 집처럼 따뜻하고 쾌적한 환경 속에서 머물 수 있도록 갖은 노력을 기울이고 있다”면서 “모든 식기는 끓는 물에 소독하는 등 직접 시설 관리를 하고 있으며, 공정위 분쟁해결지침을 따르는 등 양심적인 운영으로 단골 고객과 두터운 신뢰를 쌓고 있다”고 말했다. 이정현 기자 happyenc12@nate.com 다른기사 보기 저작권자 © 시티저널 무단전재 및 재배포 금지 당신만 안 본 뉴스 대전 유아교육비 지원 조례 제정 찬반 의견 대립 이장우·이상래 현대 아웃렛 화재 급거 귀국 박주화 교육위원장, 이장우 시장 거수기 역할 못한다 대전 현대 프리미엄 아울렛 화재 사망자 7명 소진공 이전 반대 삭발 투쟁까지...반발 거세 제9대 대전시의회 첫 예산심사 마무리 이장우시장 이상래 의장 귀국, 현대아울렛 화재현장 점검 나서 대전 유아교육비 지원 조례 제정 찬반 의견 대립 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 주요기사 대전시의회 영상 분야 전문 임기제 공무원 공개 모집 대전시향 MS 10 20세기 대표작으로 마련 이상민의원 "가석방 없는 종신형 도입하는 사형대체법 필요" [국감] 조승래의원, “신한울 3‧4호기 2~3배속 졸속 심사 우려” [국감] 박병석의원, 박병석 의원, “외면받는 통일교육..." 방산 중기 대전行 방사청 대전 이전 나비 효과 많이 본 뉴스 정치/행정 경제 사회 문화/연예 교육 1 이장우·이상래 현대 아웃렛 화재 급거 귀국 2 박주화 교육위원장, 이장우 시장 거수기 역할 못한다 3 제9대 대전시의회 첫 예산심사 마무리 4 이장우시장 이상래 의장 귀국, 현대아울렛 화재현장 점검 나서 5 민주당 대전시당- 대전 소상공인단체 간담회 개최 6 대전 중구 정치권, 소상공인시장진흥공단 이전 결사 반대 7 대전시의회 언론 길들이기? 8 성희롱 대전시의회 사무처 간부 공무원 솜방망이 징계 논란 9 대전시민사회 "대전시의회 정례회,절차와 원칙 무시 됐다" 혹평 10 민선8기 첫 번째 시.구정책조정간담회 열려 1 대전시 대형 건설사 본사 방문 지역 업체 수주 지원 요청 2 한국타이어 올 하반기 프로 액티브 리더 모집 3 대전 현대 아울렛 중간 매니저·판매 사원에 최대 350만원 지급 4 상반기 마감 청년 주택 임차 보증금 이자 지원 재개 5 소상공인 라이브 커머스 활성화 지원 사업 참여 업체 모집 6 대전 교통공사 연규양 신임 사장 공식 업무 시작 7 김홍복 씨 10월 이달의 임업인 선정 8 대전 우수 중기 참여 기업 채용 박람회 목원대서 열려 9 지역 사회 문제 해결과 혁신 모델 창출 위한 콜라보 데이 개최 10 대전 미래 가치 품은 '도안 우미린 트리쉐이드' 1 대전 유아교육비 지원 조례 제정 찬반 의견 대립 2 대전 현대 프리미엄 아울렛 화재 사망자 7명 3 소진공 이전 반대 삭발 투쟁까지...반발 거세 4 대전 유성 현대아울렛 화재 5 둔산소방서, 주택용 소방시설 촉진 통장협의회 간담회 개최 6 대전 문화 누리 카드 이용자 대상 빵빵한 이벤트 진행 7 대전 소방 전문 외상 처치술 특별 교육 과정 운영 8 청소년 눈 높이 맞춘 다목적 경찰 차량 대전서 선보여 9 제주서 숲 유치원·유아 숲 체험원 전국 대회 열려 10 유토개발 대전 다문화 엄마 학교에 7500만원 후원 1 대전 0시 축제 맛보기, 대전 0시 뮤직 페스티벌 진행 2 10월 큐레이터 추천 왕실 유물 '강서 시권' 선정 3 실기 강좌 개설 이응노 아카데미 열려 4 전통 장인이 재현한 2022 즉조당 재현 집기 전시 5 대전 UCLG 총회 성공 개최 위한 웰컴 축제 열려 6 제16회 국립 묘지 전국 사진 공모전 작품 접수 7 2022 대전 재즈 페스티벌 개최 8 한밭 도서관 10월 어린이 책 북 큐레이션 운영 9 충남 태안 앞 바다의 해양 문화 유산 학술 세미나 10 우암 사적 공원 야경 즐기는 우암 야행 진행 1 대전교육청, 다시 시작된 글로벌 취업 도전 2 대전원앙초, ‘제4회 청소년 흡연예방 문화제 초등부 영상 부문’대상 수상 3 대전시립중·고등학교, 동구 독후 감상문 공모전서 중·고등 부분 최우수상 4 대전교육청, 2022 학생언어문화개선 교육주간 운영 5 대전교육청, 김진수 부교육감 부임 6 설동호 대전교육감 " 자율적 내부통제 제도 도입" 7 대전교육청, 2023학년도 공립(사립) 중등교사 임용 시험 계획 발표 8 대전교육청, 교육활동보호 종합지원 시스템 전격 가동 중 최신뉴스 대한제국 선포 125주년 기념 '황제 고종' 특별전 대전시의회 시민 불편 사항 전분기 대비 27% 증가 지난 해 단기 소득 임산물 생산액 2조 3000억 규모 대전교육청, 교육활동보호 종합지원 시스템 전격 가동 중 대전시의회 영상 분야 전문 임기제 공무원 공개 모집 포토뉴스 둔산소방서, 탄방중 미래소방관 직업체험 비대면 교육 대전서부소방서 대형판매시설 관서장 현장 지도 둔산소방서, 주택용 소방시설 촉진 통장협의회 간담회 개최 대전 유성 현대아울렛 화재 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 대전광역시 유성구 유성대로 773, 301호(장대동) 대표전화 : 042)320-2453 팩스 : 042-367-0012 청소년보호책임자 : 김선호 법인명 : 대전시티저널 제호 : 시티저널 등록번호 : 대전아00009 등록일 : 2006-09-11 발행인 : 김선호 편집인 : 안희대 시티저널 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시티저널. All rights reserved. mail to info@gocj.net 위로 전체메뉴 전체기사 정치/행정 전체 2018 지방선거 현장 출마합니다 경제 사회 교육 전체 교육일반 평생학습 문화/연예 전체 문화일반 연예 도서/문학 공연/전시 생활 웰빙/건강 스포츠/레저 전체 스포츠일반 레져 야구 축구 농구 배구 정보과학 지역뉴스 전체 대전시 동구 중구 서구 유성구 대덕구 충남 전체 도청 공주시 논산시 당진시 보령시 서산시 아산시 천안시 금산군 부여군 서천군 연기군 예산군 청양군 태안군 홍성군 계룡시 사람들 전체 인터뷰 동정 인사 부고 결혼 칼럼 보도자료 전체 성명/논평 건강 경제 과학 교육 문화 사회 정치 행정 대덕특구 대전지방경찰청 대전지방병무청 관세청 문화재청 보훈청 산림청 특허청 조달청 기자수첩 독자기고 카툰 사고 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>폭발적 관광수요의 제주도 호황, ‘코업시티호텔 하버뷰’ 공급 | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 폭발적 관광수요의 제주도 호황, ‘코업시티호텔 하버뷰’ 공급 입력 : 2016-02-29 11:12:40 수정 : 2016-02-29 11:12:40 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 - 부동산 시장 난항 속 홀로 함박웃음 짓는 제주 - 넘치는 관광수요에 제2공항 건설 추진 난항을 겪고 있는 부동산 시장에서 홀로 함박웃음을 짓고 있는 제주도에 ‘코업시티호텔 하버뷰’가 공급된다.최근 제주도는 관광객 유입이 급증하고 있다. 제주도 관광협회에 따르면 지난해 제주 관광객은 연간 총 1363만명(잠정)을 넘어서며 역대 최대치를 기록했다. 이는 지난 2014년(1227만명)보다 11.1% 증가한 것으로, 매년 관광수요가 폭발적으로 증가하는 추세다.이와 같은 제주도 관광객 유입의 증가는 제주도 부동산 시장에 그대로 반영됐다. 지난 21일 국토교통부는 제주시의 올해 표준지공시지가가 지난해에 견줘 19.15% 치솟았다고 밝혔다. 이는 전국 표준지공시지가 평균 상승률인 4.47%에 비해 4배에 달하는 수치다.이에 국토해양부는 제주도의 넘쳐나는 관광 수요에 4조가 넘는 비용을 투자해 제2신공항 건설을 발표했다. 국토해양부는 2018년 2830만명, 2020년 3211만명의 제주도 관광객 수요를 예상해 현재 포화 상태인 제주공항에 이어 제2신공항 건설을 추진 중이다.이러한 제주도에 ‘코업시티호텔 하버뷰’가 공급된다. ‘코업시티호텔 하버뷰’는 제주도 서귀포시 남원읍 위미리 2895번지에 들어서며 지하 1층~지상 9층, 숙박시설 총 306실(전용 21.7㎡) 규모다. 준공 이후에는 코업에이치엠㈜(CO-OP)이 운영 및 관리할 계획이며, 시공사는 한일종합건설이 맡는다.  (분양문의: 1600-0223)특히 제주도의 관광객 수요가 증가한 만큼 숙박시설의 추가 공급은 불가피할 것으로 보인다. 일각에서는 호텔의 공급과잉으로 인한 수익률에 직접적으로 영향을 미치는 객실가동률의 감소를 우려하고 있지만, ‘코업시티호텔 하버뷰’의 경우 국내 부티크&amp;비즈니스호텔을 10년 이상 운영하고 있는 숙박시설 운영관리 선도기업인 코업이 운영을 맡은 만큼 안정적인 수익률이 기대된다.사업지 인근에 위치한 제주 위미항은 해양수산부의 ‘10港 10色 국가어항 만들기’ 프로젝트에 선정되면서 300억원이 투입돼 2018년까지 다기능어항으로 개발될 예정이다. 또한 지난해 4월 해수부가 발표한 ‘어촌 마리나역’에도 선정돼 향후 해양 레저 네트워크 및 해양관광의 새로운 플랫폼 역할은 물론 지역경제 발전에도 크게 기여할 것으로 기대된다.사업장은 제주 분양형호텔 최초로 LG전자의 ‘에너지절감 및 원격관리 시스템’을 도입할 예정이다. 해당 시스템 적용으로 향후 연간 에너지 사용량 30% 감소와 객실 및 로비, 레스토랑 등 에너지 소비 패턴을 공간에 맞추는 공조 서비스 제공이 가능해질 전망이다. 또 투숙객의 요구에 따라 입실 전 조명 및 냉난방을 자유롭게 조절할 수 있다.또한 총 306실로 구성된 ‘코업시티호텔 하버뷰’ 숙박룸은 코지 룸(COZY ROOM), 스파 룸(SPA ROOM), 레지던스(RESIDENCE), 스탠다드(STANDARD) 등 총 4가지로 구성됐다.스파룸은 욕실에 스파기능이 강화된 욕조를 설치했으며, 코지룸은 바닥마감재를 분리, 서재를 별도로 마련했다. 또한 레지던스 룸에서는 취사가 가능하다. 또 모든 객실에는 발코니(테라스)가 설치돼 한라산과 바다 조망을 즐길 수 있다.한편 ‘코업시티호텔 하버뷰’의 분양 홍보관은 서울시 구로구 새말로 97 테크노마트 3층(지하철 2호선 신도림역 2, 3번 출구)에 위치한다. 준공은 2018년 3월 예정이다. [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20160229001315 0101030700000 0 2016-02-29 11:13:9 2016-02-29 11:12:40 0 폭발적 관광수요의 제주도 호황, ‘코업시티호텔 하버뷰’ 공급 세계닷컴 김정환 0028f8cc-c883-4815-9315-2c6633fff652 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 23층 지붕 위 기인…양복 입고 활보, 왜? 2 머스크, 440억달러에 트위터 인수…계약파기 철회 3 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 4 에펠탑 아래 숲, 하마터면 사라질뻔∼ 5 터미네이터 속 ‘심판의 날’ 온다? 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>제주도관광협회 Best 관광인 강경희 씨 &lt; 관광일반 &lt; 관광 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 Best 관광인 강경희 씨 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 관광 관광일반 제주도관광협회 Best 관광인 강경희 씨 기자명 이동건 기자					(dg@jejusori.net) 입력 2016.02.28 13:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 제주도관광협회 이달의 베스트 관광인으로 선정된 강경희 팀장. 제주도관광협회 이달의 베스트 관광인으로 롯데제이티비 주식회사 강경희 팀장이 선정됐다. 지난 25일 제주시 하와이호텔에서 열린 ‘칭찬합시다’ 시상식에서 ‘강경희 展’을 기획한 강 팀장이 베트스 관광인으로 선정돼 상을 받았다. 강 팀장은 침체된 일본인 제주 관광 유치를 위해 힘쓴 공로를 인정받았다. 도관광협회는 제주 관광 활성화를 위해 모범이 되는 관광인을 매월 선정하고 있다. 이동건 기자 dg@jejusori.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>관광객 유입 급증하는 제주도, 코업시티호텔 하버뷰 공급 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 부동산 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 부동산 &gt; 관광객 유입 급증하는 제주도, 코업시티호텔 하버뷰 공급 파이낸셜뉴스입력 2016.02.26 09:48수정 2016.02.26 09:48 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 ▲제주 코업시티호텔 하버뷰 부동산 시장 난항 속 홀로 함박웃음 짓는 제주 넘치는 관광수요에 제2공항 건설 추진 난항을 겪고 있는 부동산 시장에서 홀로 함박웃음을 짓고 있는 제주도에 ‘코업시티호텔 하버뷰’가 공급된다. 최근 제주도는 관광객 유입이 급증하고 있다. 제주도 관광협회에 따르면 지난해 제주 관광객은 연간 총 1363만명(잠정)을 넘어서며 역대 최대치를 기록했다. 이는 지난 2014년(1227만명)보다 11.1% 증가한 것으로, 매년 관광수요가 폭발적으로 증가하는 추세다. 이와 같은 제주도 관광객 유입의 증가는 제주도 부동산 시장에 그대로 반영됐다. 지난 21일 국토교통부는 제주시의 올해 표준지공시지가가 지난해에 견줘 19.15% 치솟았다고 밝혔다. 이는 전국 표준지공시지가 평균 상승률인 4.47%에 비해 4배에 달하는 수치다. 이에 국토해양부는 제주도의 넘쳐나는 관광 수요에 4조가 넘는 비용을 투자해 제2신공항 건설을 발표했다. 국토해양부는 2018년 2830만명, 2020년 3211만명의 제주도 관광객 수요를 예상해 현재 포화 상태인 제주공항에 이어 제2신공항 건설을 추진 중이다. 이러한 제주도에 ‘코업시티호텔 하버뷰’가 공급된다. ‘코업시티호텔 하버뷰’는 제주도 서귀포시 남원읍 위미리 2895번지에 들어서며 지하 1층~지상 9층, 숙박시설 총 306실(전용 21.7㎡) 규모다. 준공 이후에는 코업에이치엠㈜(CO-OP)이 운영 및 관리할 계획이며, 시공사는 한일종합건설이 맡는다. 특히 제주도의 관광객 수요가 증가한 만큼 숙박시설의 추가 공급은 불가피할 것으로 보인다. 일각에서는 호텔의 공급과잉으로 인한 수익률에 직접적으로 영향을 미치는 객실가동률의 감소를 우려하고 있지만, ‘코업시티호텔 하버뷰’의 경우 국내 부티크&amp;비즈니스호텔을 10년 이상 운영하고 있는 숙박시설 운영관리 선도기업인 코업이 운영을 맡은 만큼 안정적인 수익률이 기대된다. 사업지 인근에 위치한 제주 위미항은 해양수산부의 ‘10港 10色 국가어항 만들기’ 프로젝트에 선정되면서 300억원이 투입돼 2018년까지 다기능어항으로 개발될 예정이다. 또한 지난해 4월 해수부가 발표한 ‘어촌 마리나역’에도 선정돼 향후 해양 레저 네트워크 및 해양관광의 새로운 플랫폼 역할은 물론 지역경제 발전에도 크게 기여할 것으로 기대된다. 사업장은 제주 분양형호텔 최초로 LG전자의 ‘에너지절감 및 원격관리 시스템’을 도입할 예정이다. 해당 시스템 적용으로 향후 연간 에너지 사용량 30% 감소와 객실 및 로비, 레스토랑 등 에너지 소비 패턴을 공간에 맞추는 공조 서비스 제공이 가능해질 전망이다. 또 투숙객의 요구에 따라 입실 전 조명 및 냉난방을 자유롭게 조절할 수 있다. 또한 총 306실로 구성된 ‘코업시티호텔 하버뷰’ 숙박룸은 코지 룸(COZY ROOM), 스파 룸(SPA ROOM), 레지던스(RESIDENCE), 스탠다드(STANDARD) 등 총 4가지로 구성됐다. 스파룸은 욕실에 스파기능이 강화된 욕조를 설치했으며, 코지룸은 바닥마감재를 분리, 서재를 별도로 마련했다. 또한 레지던스 룸에서는 취사가 가능하다. 또 모든 객실에는 발코니(테라스)가 설치돼 한라산과 바다 조망을 즐길 수 있다. 한편 ‘코업시티호텔 하버뷰’의 분양 홍보관은 서울시 구로구 새말로 97 테크노마트 3층(지하철 2호선 신도림역 2, 3번 출구)에 위치한다. 준공은 2018년 3월 예정이다. ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광객 만족도 높인다…빅데이터 활용 정책 등 개발 검색 본문 바로가기 회사정보 바로가기 2022.10.11 (화) 실시간뉴스 play puase 실시간 뉴스열기 실시간 뉴스 닫기 실시간뉴스 기사제보 상품소개 노동신문 CONNECT 서비스 해피펫 통합검색 통합검색 통합검색 기자명 제목+내용 제목 내용 검색 정치 국회ㆍ정당 대통령실 총리ㆍ감사원ㆍ위원회 국방ㆍ외교 통일 정치일반 북한 정치ㆍ외교 군사 경제 사회 문화ㆍ스포츠 남북교류ㆍ협력 경제 정책 일반동향 건설ㆍ부동산 농식품 사회 법원ㆍ검찰 사건ㆍ사고 교육 복지ㆍ인권 노동 환경 날씨ㆍ재해 일반 인물 여성가족 IT/과학 모바일 통신ㆍ뉴미디어 인터넷ㆍ플랫폼 IT일반 보안ㆍ해킹 컴퓨터 게임ㆍ리뷰 과학일반 금융/증권 금융일반 금융정책 통화정책 은행 금융투자 보험 카드 핀테크 증권일반 산업 산업일반 재계 전기전자 자동차산업 에너지ㆍ중공업 유통 생활경제 중기ㆍ창업 패션 뷰티 호텔ㆍ관광 의료 식음료 헬스케어 제약ㆍ바이오 취업ㆍ채용 지방 행정자치 서울 경기 인천 강원 세종ㆍ충북 대전ㆍ충남 전북 광주ㆍ전남 대구ㆍ경북 부산ㆍ경남 울산 제주 국제 국제경제 미국ㆍ캐나다 동북아 아시아ㆍ호주 유럽 중동ㆍ아프리카 국제기구 피플&amp;피플 지구촌화제 일반 중남미 생활/문화 공연ㆍ전시 책 종교 문화정책 문화일반 건강정보 여행·레저 운세ㆍ명언 도로ㆍ교통 반려동물 자동차생활ㆍ시승기 음식ㆍ맛집 연예 연예가화제 방송ㆍTV 영화 음악 해외연예 인터뷰 스포츠 야구 해외야구 축구 해외축구 골프 종목일반 농구 배구 여행 국내 해외 바이크 관광 레저 호텔ㆍ크루즈 이벤트 포토 영상 이슈 펫카드 그래픽뉴스 인사 부고 페이스북 트위터 유튜브 인스타그램 네이버 포스트 해피펫 N트래블 뉴스1바이오 N스타일 노동신문 히든메뉴 닫기 글로벌 메뉴 열기 정치북한사회경제IT/과학금융/증권산업지방행정자치서울경기인천강원세종ㆍ충북대전ㆍ충남전북광주ㆍ전남대구ㆍ경북부산ㆍ경남울산제주국제생활/문화연예스포츠여행TVBBC 홈 &gt; 지방 &gt; 제주 제주도, 관광객 만족도 높인다…빅데이터 활용 정책 등 개발 한국은행 제주본부·신한카드와 업무협약 체결 (제주=뉴스1) 이석형 기자					| 2016-02-23 16:56 송고 댓글 공유 카카오톡으로 공유하기 페이스북으로 공유하기 트위터로 공유하기 이메일로 공유하기 url 복사 축소/확대 가 가 가 가 가 인쇄 23일 제주도청 삼다홀에서 한국은행 제주본부와 제주도, 신한카드 관계자들이 제주방문 관광객 만족도 제고를 위한 빅데이터 활용 상호협력 업무협약 체결 후 기념사진을 촬영하고 있다.(한국은행 제주본부 제공)© News1 한국은행 제주본부와 제주도, 신한카드는 23일 제주도청 삼다홀에서 제주방문 관광객 만족도 제고를 위해 빅데이터 활용 상호협력 업무협약을 체결했다.이번 업무협약으로 국내 카드업계중 시장점유율이 가장 높은 신한카드의 빅데이터․조사분석 능력과 함께 한국은행 제주본부의 지역경제 조사‧연구 수행 노하우가 합쳐져 도내 관광사업체의 경쟁력 제고 및 관광객 만족도 향상에 많은 도움이 될 것으로 기대된다.주요 협약 내용은 관광객 지출패턴 분석을 통한 제주관광업 현황분석, 제주공공 서비스 개발 및 공익사업 관련 빅데이터 분석지원과 빅데이터 전문 인력양성 등이다.또 협약의 시너지 효과를 높이기 위해 한국은행 제주본부는 카드 빅데이터를 이용한 조사연구 수행, 신한카드는 빅데이터 분석지원 및 전문인력 교육지원, 도는 빅데이터 분석결과 활용해 관광정책에 반영하기로 했다.이날 협약식에서 하근철 한국은행 제주본부 본부장은 “최근 제주의 관광트렌드는 빠르게 변하고 있어 소비패턴 등을 좀 더 체계적으로 분석할 필요성이 증대되고 있다”며 “신한카드사와의 협업을 통해 제주 관광산업의 지속가능한 성장에 도움을 줄 수 있는 조사‧연구자료가 나올 것으로 기대한다”고 말했다. 위성호 신한카드 대표이사는 “2200만 회원의 거래 데이터를 기반으로 한 빅데이터 경영을 선도적으로 전개해 제주도와 함께 제주관광 질적 성장 정책에 적극 동참할 것”이라며 “한국은행과의 공동 작업을 통해 공신력 있는 관광통계 개발 및 지역경제 현안분석 등의 결과물을 만들 것으로 기대한다”고 밝혔다.원희룡 제주지사는 “관광객들을 위해 빅데이터 분석 수준을 넘어 잘 선택하고 그 선택에 만족할 수 있는 관광정책을 개발하는데 최선을 다 할 것”이라며 “제주가 대한민국 관광 1번지를 넘어 아시아 최고의 체류형 휴양 관광지로 성장할 수 있도록 협약기관의 협조를 당부한다”고  말했다.이번 업무협약으로 카드승인 데이터를 이용할 경우 실제 관광객의 소비성향 분석과 외국인 관광객 지출 패턴 분석도 가능해 향후 제주 관광정책 수립에 다양하게 활용될 수 있을 것으로 기대된다. jejunews77@ &lt;저작권자 © 뉴스1코리아, 무단전재 및 재배포 금지&gt; 핫뉴스 이지현 "돌싱 둘째남편 시댁서 아이들 거부…살림 못 합쳤다" 선우은숙, 4살 연하 유영재 아나운서와 결혼 "최근 혼인신고" 안현모, 재혼언급 "원하는 삶 살아줄 女 만나"…라이머 당혹 한동훈 어록 출판사 "韓, 거부땐 제작 중단…아무말 없었다" '남궁민♥' 진아름, 화사한 웨딩드레스 자태 "예쁘게 살 것" 김태희, 직접 올린 근황은…독보적 미모 오늘의 핫 포토 꿈새김판 가을편 '지금이 가을이에요' '서울에서 발생한 총기사고, 경찰 조사 중' 한일 국장협의 참석하는 후나코시 다케히로 일본 외무성 국장 [국감] '감사원 감사중지' 모더나 2가 백신 접종하는 시민 알록달록 뜨개옷 입은 나무들 실종된 가을 탭메뉴 스포츠 연예 스타일 스포츠 '2년 간 11승' 박민지, 신지애 기록 넘본다…대상-상금왕 2연패 정조준 IBK기업은행, 여자부서 가장 먼저 외인 교체…산타나 다시 영입 결국 끝까지 온 3위 싸움…KT, 반드시 이겨야 하는 이유 '시즌 5승' 박민지, 세계랭킹 2계단 올라 16위…고진영 1위 유지 연예 유진·은지원·황제성, '뜨겁게 안녕' 호스트 확정…10월 말 첫방 바타, 화제의 '새삥' 춤 일부 표절?…에이티즈 안무가, 의혹 제기 엑소 첸, 31일 새 미니앨범 '사라지고 있어' 발매…3년 만 솔로 컴백 공효진♥케빈오, 11일 미국 뉴욕서 결혼식…10세 연상연하 부부 스타일 최시원, 완벽 슈트핏에 넘치는 여유..."내 레전드 인물은 이수만" [N화보... 아이유·손석구, 커플 화보...의외의 달달 눈빛 교환 [N화보] 잔나비 최정훈, 바가지 헤어+농염 눈빛…자유분방 매력 [N화보] 레드벨벳 슬기, 궁전에 사는 공주님 비주얼 '세련' [N화보] 이전 다음 회사소개 개인정보취급방침 뉴스1 모바일 제휴광고 콘텐츠 판매 기사제보 고충처리 청소년 보호정책 지방본부 바로가기 경기 인천 강원 세종· 충북 대전· 충남 전북 광주· 전남 대구· 경북 부산· 경남 울산 제주 대표이사/발행인: 이백규 | 편집인: 강호병 | 주소: 서울시 종로구 종로 47 (공평동,SC빌딩17층) | 사업자등록번호: 101-86-62870 고충처리인: 김성환 | 통신판매업신고: 서울종로 0676호 | 등록일: 2011.05.26 | 제호: 뉴스1코리아 문의: 02-397-7000, webmaster@news1.kr Brand Promotional Section 삼성 홍보관 새창열기 현대 홍보관 새창열기 우수 컨텐츠 마크 확인페이지 새창열기 2016 웹 어둬드 방송 신문분야 최우수상 수상 Copyright (c) News1 Korea. All rights reserved. 모바일 버전</t>
+  </si>
+  <si>
+    <t>제주관광 만족도 높일 빅데이터 협업 개막..신한카드·제주도·한은이 뭉쳤다 - 화이트페이퍼 × 전체기사 종합 전체 국제 정치 교육 빅데이터 WP포토 경제 전체 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 전체 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 전체 문화∙일반 라이프 책도시락 전체 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 전체 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 올해의 책 베스트셀러랭킹 여론광장 전체 논쟁 더 칼럼 블로그 스토리 북콘서트 글쓰기훈련소 전체 글쓰기정보 연예 기타 전체 북토마토 CEO 직장인 여성/학부모 대학생 기업PR 라이프 전체 방송/연예 사회/일반 정치/경제 스포츠 UPDATED. 2022-10-11 12:13 (화) 로그인 회원가입 모바일웹 전체 종합 국제 정치 교육 빅데이터 WP포토 경제 경제일반 IT 생활경제 산업 부동산 아이엠리치 Money 금융 증권 보험 부동산 소비•재테크 정책 이슈 사회/문화 문화∙일반 책도시락 책속의 지식·명문장 성공·아이디어 책속에 이런일이? 책속의 포스트잇 책속의 퀴즈 출판계 소식 삶의 향기 북데일리 문학 인문·과학 경제경영 청소년 육아 여행 취미 레저 에세이 자기계발 추천! 이 책 북밴 글쓰기훈련소 출판계 소식 인터뷰 명사추천 이달의 책 여론광장 논쟁 더 칼럼 블로그 스토리 자유게시판 공지사항 기업PR 라이프 방송/연예 사회/일반 정치/경제 스포츠 검색버튼 기사검색 검색 이전 다음 제주관광 만족도 높일 빅데이터 협업 개막..신한카드·제주도·한은이 뭉쳤다 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME Money 금융 제주관광 만족도 높일 빅데이터 협업 개막..신한카드·제주도·한은이 뭉쳤다 주가영 기자 승인 2016.02.23 14:01 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × ▲ 신한카드는 23일 제주특별자치도청, 한국은행 제주본부와 공동으로 빅데이터 활용 상호협력 업무협약을 체결했다. 왼쪽부터 하근철 한국은행 제주본부장, 원희룡 제주특별자치도지사, 위성호 신한카드 사장 (사진=신한카드) [화이트페이퍼=주가영 기자] 제주관광의 비약적 성장을 꾀하려 한은과 카드사 그리고 제주도가 뜻을 뭉쳤다. 방대한 빅데이터 분석을 바탕으로 더욱 즐거운 관광체험을 유도할 기반을 확보하겠다는 것이다. 신한카드는 23일 제주특별자치도청 삼다홀에서 제주특별자치도청, 한국은행 제주본부와 공동으로 빅데이터 활용 상호협력 업무협약을 체결했다고 이날 전했다. 이번 협약은 공공 및 민간 융·복합 빅데이터 분석으로 제주도 관광 통계 지표를 수립하고 빅데이터 연계·교류 체계를 구축하기 위해 이뤄졌다. 제주도청은 1300만 관광객 빅데이터를 활용해 질적성장 차원의 정책을 추진한다. 신한카드는 자사의 선도적인 빅데이터 역량을 결합해 공공 가치 제고를 도모하게 된다. 특히 한국은행과의 공동작업으로 공신력 있는 관광통계 개발 및 지역경제 현안 분석 등 고도화된 결과물을 만들어낸다는 점에서 관련 기관과 업계의 주목을 받고 있다. 구체적인 업무협약의 주요 내용으로는 ▲제주 관광업 현황분석을 위한 카드 빅데이터 활용 ▲제주 공공서비스 개발 및 공익사업 관련 빅데이터 분석지원 ▲빅데이터 전문 인력 양성 등이다. 협약의 시너지 효과를 높이고자 각 기관별로 업무분담 해 체계적인 조사분석을 추진한다. 신한카드는 빅데이터 분석지원 및 전문인력 교육지원, 한국은행 제주본부는 카드 빅데이터를 이용한 조사연구 수행, 제주특별자치도에서는 빅데이터 분석결과를 활용해 관광정책에 반영하는 등 역할분담을 하게 된다. 신한카드 관계자는 “이번 업무협약은 중앙은행과 협업하는 국내 최초의 빅데이터 모델로 의미가 있다”고 말했다. 이어 “카드승인데이터를 이용할 경우 장단기 관광 트렌드 예측과 외국인 관광객 지출 패턴 분석도 가능해 향후 제주관광정책 수립에 많은 기여를 할 수 있을 것으로 기대하고 있다”고 말했다. 저작권자 © 화이트페이퍼 무단전재 및 재배포 금지 화이트페이퍼, WHITEPAPER 주가영 기자 young47777@naver.com 다른기사 보기 관련기사 고객의소리 듣는 일부터 전문화 구슬땀..신한카드, 2016년 고객패널 세 갈래 운영 [줌-인] 소비자 편익인가 차별인가..카드사, 1만원 이하는 문자메시지 청구로 끝? 국내 전용인데 수수료 없이 일본 편의점서 쓴다..신한카드, 서비스 적용 가맹점 확대 연회비 단돈 2천원에 유효기간은 10년이나..신한카드, 후불하이패스카드+ 출시 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1온라인에서 오프라인으로…영토 넓히는 게임사들 2같은 음식 주문해도 배달비 달라... '최고 배달비' 많은 앱은 배민1 3SPC그룹, 무연고 아동 돕기 ‘SPC해피쉐어 캠페인’ 진행 4라인게임즈, 내달 '언디셈버' 글로벌 서비스 돌입…"운영 방식 차별 없어" 5농심켈로그 ‘켈로그 오트로드 by 연희’ 개최 6우리은행, 무주택 청년 위한 '우리 청년약속 통장' 출시 7신한은행, 청각장애인 일자리 지원 '카페스윗' 명동점 개점 8카카오뱅크, 디지털 정보 격차 해소 위한 IT기기 기부 참여 9내부통제 점검 나선 권준학 NH농협은행장 10태양광 대출·펀드 22.7조…금감원 "면밀 점검·조치 예정" 최신기사 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 롯데홈쇼핑 5000억원 규모 쇼핑축제 ‘대한민국 광클절’ 개최 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 이복현 금감원장 "금융사고·불법 공매도 강력 대응" 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 뉴 쏠 출범 앞둔 신한은행 어텐션…새 광고모델에 '뉴진스' 발탁 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 영등포구 국제금융로 6길 33, 1212호 (여의도동, 맨하탄빌딩) 대표전화 : 02-323-1905 팩스 : 02-6007-1812 청소년보호책임자 : 박경화 법인명 : 주식회사 화이트페이퍼 제호 : 화이트페이퍼 등록번호 : 서울 아 03165 등록일 : 2014-05-22 발행일 : 2014-05-22 발행인 : 임정섭 편집인 : 임정섭 화이트페이퍼 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 화이트페이퍼. All rights reserved. mail to white@whitepaper.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 실시 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 실시 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회 등반동호회, 관광상품개발 촉진 현장체험 실시 기자명 고병수 기자 입력 2016.02.21 18:13 수정 2016.02.21 19:06 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회 등반동호회(회장 김명진)는 20일 도내 관광사업체 임직원 등으로 구성된 회원 80여명과 함께 '제주곶자왈 도립공원' 및 '플레이케이팝'을 연계한 2016년 첫 관광인 2월 등반동호회 행사를 실시했다.이날 행사에서는 열대 북방한계 식물과 한대 남방한계 식물이 공존하고 세계적으로도 독특한 생태계를 유지하고 있는 ‘제주의 허파’라 불리는 제주곶자왈도립공원과 세계 최대 K-POP 뮤지엄인 플레이케이팝을 탐방했다.등반동호회는 4월부터 신임 등반동호회장으로 고수은 대표((주)동양썬라이즈) 체제로 운영된다. 관계자는 "등반동호회는 도내 관광자원 현장체험을 통해 제주의 다양한 관광상품을 개발 촉진하고 관광으로 만들어 가는 희망찬 제주를 만들기 위해 적극 앞장서 나갈 계획"이라고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, "굿잡제주"통한 취업기원 및 성공 이벤트 진행 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, "굿잡제주"통한 취업기원 및 성공 이벤트 진행 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, "굿잡제주"통한 취업기원 및 성공 이벤트 진행 기자명 고병수 기자 입력 2016.02.21 19:01 수정 2016.02.21 19:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 (제주=국제뉴스) 고병수기자 = 제주특별자치도관광협회(회장 김영진)는 관광사업체 인력난 해소 및 취업률 증진을 위한 "취업기원 및 성공 이벤트"를 진행한다고 21일 밝혔다.도관광협회는 취업성공 축하이벤트로 관광전문 취업포털사이트 '굿잡제주'를 통해 취업에 성공하고 취업수기를 작성한 회원과 기업체를 대상으로 입사기념품 및 외식상품권을 제공한다.또한 취업기원 이벤트를 진행해 개인이력서 및 인재등록을 완료한 회원을 대상으로 추첨을 통해 신세계상품권 20만원, 블루투스 스피커, 이어폰, 커피메이커, 온라인 문화상품권(1만원 상당)을 증정한다.이벤트 관련 자세한 내용은 ‘굿잡제주’ 홈페이지(www.goodjobjeju.or.kr)   및 어플리케이션 공지사항을 통해 확인하면 된다. 한편 도관광협회는 지난해 11월부터 관광사업체 인력난 해소 및 청년취업률 증진을 위해 '굿잡제주'를 구축해 도내 대학 및 특성화고등학교를 대상으로 설명회를 전개했다.관계자는 "앞으로는 인재등록을 완료한 개인회원을 대상으로 기업체와 직접 연결하는 시스템으로써 활용할 계획"이라고 말했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 中 관광객 수 여전히 증가하지만… 다시 안 온다-국민일보 시사 시사 &gt; 전체기사 제주도 中 관광객 수 여전히 증가하지만… 다시 안 온다 입력 : 2016-02-18 19:26 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 제주를 찾는 중국인 관광객은 늘고 있지만 재방문율이 낮고 체류기간도 짧은 것으로 나타났다. 한국은행 제주본부는 ‘제주경제브리프'에서 중국인 아웃바운드(내국에서 외국으로 출국하는 것)관광시장의 현황과 시사점을 분석한 결과 이같이 나타났다고 18일 밝혔다. 한은 제주본부는 중국인 아웃바운드 관광객의 경우 주로 중국 동부연안 지역의 25~34세 여성으로, 쇼핑을 목적으로 아시아 지역을 방문하는 것으로 조사됐다고 밝혔다. 중국내 해외관광에 대한 규제가 완화되면서 주요 목적지가 홍콩·마카오에서 한국·일본·태국 등 아시아 지역으로 확대됐다는 것이다. 중국인 관광시장은 첫 해외여행 비중이 높고, 여행사를 통해 해외 관광에 나서며, 낮은 여행경비를 선호하는 특색을 보였다. 중국인들의 해외관광시 소비항목 중 비중이 가장 높은 것은 ‘쇼핑'으로 인삼이나 한약재 등 식료품의 비중이 많았던 10년 전과는 달리 최근에는 향수·화장품·의류 등의 판매 비중이 많다는 분석이다. 쇼핑장소의 경우 시내면세점이 제일 높은 비중을 차지했다. 중국관광객의 한국여행 방문지는 서울이 가장 높은 비중을 차지했고, 다음으로 제주를 찾는 관광객이 많은 것으로 조사됐다. 제주지역을 방문하는 중국관광객 수는 2005년 11만5000명에서 2011년 50만명을 넘어섰고, 2012년 처음으로 100만명을 돌파했다. 2014년에는 거의 300만명에 달하는 중국인이 제주를 방문했다. 중국인 관광시장이 제주지역의 전체 인바운드(외국에서 내국으로 입국하는 것)시장에서 차지하는 비중은 2005년 30.4%에서 2010년 50%를 넘어섰고, 2014년에는 80%를 넘어 중국 시장에 대한 의존도가 점차 높아지는 것으로 나타났다. 하지만 중국·대만·홍콩 등 중화권 관광객의 재방문율은 낮고, 체류기간도 타 지역에 비해 짧은 것으로 조사됐다. 실제 중화권 관광객의 한국 체류기간은 평균 5.83일, 제주 체류기간은 2.76일에 그쳤다. 일본권 관광객의 경우 한국 체류기간은 9.22일, 제주 체류기간은 6.42일이었다. 제주를 방문하는 크루즈 관광객도 크게 늘었지만, 60%에 달하는 관광객의 체류 시간은 3~5시간에 그치고 있다. 한은 제주본부 관계자는 “중화권 관광객의 재방문율을 높이고 신세대 소비층의 유치를 위해 주요 소비층으로 자리 잡은 1980∼90년대 생을 타깃으로 한 상품 개발에 나설 때”라고 말했다.제주=주미령 기자 lalijoo@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 버스타는 女, 신체 만지고 도망…6급 교육공무원이었다 ‘이자 폭탄’ 예고… 38만가구, 집 팔아도 빚 못 갚는다 오토바이와 ‘툭’… “괜찮다”더니 병원 20번 갔다 [영상] “예전 개념”…박수홍 울린 친족상도례, 69년만에 바뀌나 ‘풀소유’ 논란후 2년, 혜민 근황…“따가운 시선에 상처” [영상] 삼성전자 우크라 지사 건물, 러 미사일에 파손 ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 ‘무주 일가족 중독’ 합동감식 “보일러 연통, 그을음으로 막혀” [단독] 시중은행도 당했다… 신종 전세사기 일당 검거 14살 제자와 성관계 후 “진짜 사랑”… 전문가 “그냥 범죄” 박수홍, 父폭행 직후 녹화서 “제가 속병 전문가” 넉살 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다”</t>
+  </si>
+  <si>
+    <t>제주도관광협회 골프동호회, 2월 친선골프대회 개최 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 골프동호회, 2월 친선골프대회 개최 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 골프동호회, 2월 친선골프대회 개최 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.02.18 13:03 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회 골프동호회(회장 정양훈)는 17일 롯데스카이힐제주CC에서 회원사 임직원 및 가족 등 동호회 회원 50여명이 참가한 가운데 2월 친선 골프대회를 개최했다.대회 결과 AJ렌터카 오태희 지점장이 우승했다. 메달리스트에는 대호글로벌투어 오경만씨, 준우승은 제주도관광협회 김동완 자문위원장이 차지했다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 뱃길관광 활성화 상품개발 착수 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회, 뱃길관광 활성화 상품개발 착수 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회, 뱃길관광 활성화 상품개발 착수 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2016.02.18 13:01 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 김영진)는 제주기점 뱃길관광 활성화를 위해 관광상품 개발에 나섰다고 18일 밝혔다.이를 위해 19일 호남권 지역 등반 및 레저포츠 동호인들이 1박2일 일정으로 제주에서 힐링을 만끽할 수 있는 한라산 등반과 사려니숲길 탐방 등 체험행사를 진행한다.이번 행사는 호남권제주관광 홍보사무소가 제주~목포 노선을 운항하는 씨월드고속훼리와 협업을 통해 호남권 지역에 맞는 선박상품을 개발해 진행되는 것이다.관광협회는 올해 제주지역여행업체 및 제주기점 선박사들과 협업을 통하여 선상이벤트 및 유명인 섭외, 기념품 등 상품콘텐츠 지원 및 공동마케팅을 추진해 다양한 상품개발을 유도해 나갈 계획이라고 밝혔다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>중국 관광객 몰린 제주도 서비스업 생산 증가율 최고치 기록 &lt; 경제 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 11:37 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 중국 관광객 몰린 제주도 서비스업 생산 증가율 최고치 기록 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 중국 관광객 몰린 제주도 서비스업 생산 증가율 최고치 기록 기자명 권은이 기자 입력 2016.02.18 13:38 수정 2016.02.18 13:44 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 중국 관광객 증가로 소비가 급증하면서  지난해 제주도의 서비스업 생간 증가율이 사상 최고치를 기록했습니다.통계청이 발표한 '2015년 4분기 시·도 서비스업 생산과 소매판매 동향'에 따르면 지난해  제주의 서비스업 생산은 1년전보다 6.1% 증가했습니다.이는 전국 평균 2.9%보다 두배이상 높은 것이며 통계청이  2011년 시도별 서비스업 생산 증가율 자료를 작성한 이후 최고치를 기록한 것입니다. 권은이 기자 bbskwon@bbsi.co.kr 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 [코로나19]신규확진 1만명대...오늘부터 개량백신 접종 시작 최신뉴스 국제 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 전국 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 지방사 인터뷰 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 사회 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 경제 복지시스템 개통 1달만에 오류 접수 10만건 쇄도…하루 5천여건 접수 포토뉴스 러, 우크라 공격 100여명 사상…유엔, 러 규탄 결의안 논의 대구 동구청, 2023년 개발제한구역 주민지원사업 8건 추진 '기후변화는 생명의 위기'(14)...정지숙 (사)이주민과 함께 상임이사 '고 이예람 녹음파일 조작 혐의' 변호사, 국민참여재판 희망 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 3 무주 일가족 사상사고...보일러 배기관 막혀 4 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 7 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 8 은해사 창건 1213주년, 해인사 창건 1220주년.....개산 기념 문화 행사 풍성 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 관서지역 레저스포츠 비즈니스 마케팅 전개 &lt; 사회 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' [특징주] 솔고바이오 주가 상승 '아리바이오 치매 치료제 수혜' [특징주] 바이오톡스텍 주가 강세 '경구용 치매치료제 기대감' [특징주] 휴엠앤씨 주가 하한가 '2년 4개월 만에 거래 재개' [특징주] 양지사 주가 너무 올랐나...단기 급등에 하락 전환 [특징주] 한일사료 주가 상승 '밀 가격 7% 올라' [급등주] 화천기계 6거래일 연속 상승 '경영권 분쟁 영향?' [특징주] HMM 주가 하락 '2025년 말 민영화 계획 보고' [특징주] 인바이오젠 주가 하한가 '검찰 압수수색 영향' 2022-10-11 11:45 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 일본 관서지역 레저스포츠 비즈니스 마케팅 전개 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 사회 제주도관광협회, 일본 관서지역 레저스포츠 비즈니스 마케팅 전개 기자명 고병수 기자 입력 2016.02.18 01:17 수정 2016.02.18 01:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ▲ 일본 관서지방서 제주관광 마케팅을 전개하는 제주도관광협회 관계자들 모습. (제주=국제뉴스) 고병수기자 = 제주특별자치도와 道관광협회(회장 김영진)는 지난 12일부터 16일까지 일본 와카야마현 아리타시에서 개최된 제8회 아리타시미캉카이도마라톤대회에 참가해 아리타시관광협회(회장 하나다 유)와 민간 스포츠교류 활성화와 고부가가치 맞춤형 제주관광 상품 현장 로드홍보를 전개하는 등 비즈니스 마케팅을 추진했다고 17일 밝혔다. 제주 교류단은 아리타시관광협회와의 간담회를 통해 양 지역 간 마라톤 교류 활성화 및 발전 방안 논의와 질적 성장을 위한 고부가가치 레저.스포츠 상품 개발 등을 통해 오는 5월 29일 개최되는 제21회 제주국제관광마라톤축제 일본인 참가자 유치 확대 및 침체된 대일 관광 회복을 위해 상호 적극 노력키로 했다.또한 모치즈키 요시오 아리타시 시장, 후쿠나가 히로쯔구 아리타시의회 의장, 미야이 키요아키 아리타상공회의소 회장 등 아리타시의 주요 인사들이 주요특산물인 밀감과 해안도로(미캉카이도)라는 공통점에 큰 관심을 나타내 제21회 제주국제관광마라톤축제에 참가하겠다는 의사를 표명해 일본인 관광객 유치를 위한 활기를 불어 넣다.이와 함께 교류단은 관서제주특별자치도민협회를 방문해 홍범주 관서도민협회장을 비롯 재일본대한수영연맹 회장이자 체육협회 회장인 김일파 회장과의 간담회에서 양 협회를 통해 레저.스포츠 관광객 유치를 위한 교류를 적극 펼쳐 나가기로 약속했다. 그리고 인바운드 전문 제주토종 대형여행사 제이트립이 일본 여행사와의 네트워크를 적극 구축하고 제주-일본 직항노선 활성화 방안 논의를 통해 제주관광과 제주도민의 상생 발전 및 일본 관광시장 활성화를 기대하게 했다.도관광협회 관계자는 "우호교류단체와의 지속적인 스포츠 교류 확대 및 협력 비즈니스 마케팅 전개로 침체괸 일본관광시장 회복을 위해 전력을 다하겠다"고 했다. 고병수 기자 bsko749@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 증평군 방문 김영환 충북지사, 군민 건의사항 수렴 최신뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 [GJ포토] 매니 파퀴아오, '카리스마 넘치는 입장'(파퀴아오 내한 기자회견) 포토뉴스 양평군, 걷기와 여행 포럼 개최 [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' 세종교육원, 찾아가는 분리배출 교실 운영 시흥시, 온라인 힐링 콘서트 '청년, 해방을 꿈꾸다' 26일 개최 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도-JTO, 일본관광 회복 위한 대대적 현지마케팅 총력 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도-JTO, 일본관광 회복 위한 대대적 현지마케팅 총력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도-JTO, 일본관광 회복 위한 대대적 현지마케팅 총력 기자명 고연정 기자 입력 2016.02.17 15:46 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도·제주관광공사, 2월17일~19일 ‘일본 도쿄 지역 세일즈’ 나서한국문화관광 전시전, '한국방문의 해' 개막식, 일본관광 위기극복 워크샵 등 ▲ [제주도민일보DB][제주도민일보=고연정 기자] 제주특별자치도와 제주관광공사(사장 최갑열)가 올해 제주관광의 중요과제 중 하나인 '일본인관광객 조기정상화'를 위해 대대적인 현지마케팅에 나선다.도와 제주관광공사는 일본인관광객의 조기 정상화 및 시장 활성화를 위해 17일부터 19일까지 일본 현지 프로모션에 나선다고 밝혔다.이번 현지프로모션은 침체된 일본인 제주관광시장을 살리기 위해서 현지업계를 대상으로 제주관광과 관련된 의견을 청취하고, 일본인관광객 유치 활성화를 위한 공동 사업추진 방향을 모색하기 위해 마련됐다.17일 오전에 열리는 한국문화관광 전시전은 주일한국문화원이 주최하는 행사다. ‘2016-2018 한국방문의 해’ 홍보 및 지역관광 활성화를 위해 기획됐다.이번 전시전은 동아시아 문화도시로 지정된 제주와 동계올림픽 개최 예정지인 강원, 그리고 유네스코 세계유산에 등재된 백제 역사유적이 있는 충남지역의 주요 관광자원, 문화자원을 소개하는 자리다.17일 오전 주일한국문화원 갤러리 Mi에서 열리는 개막행사에는 심동섭 주일한국문화원 원장과 최갑열 제주관광공사 사장 외에도 주일한국대사관 관계자, 강원과 충남 광역지자체 관계자들이 참석한다.이날 오후에는 최근 한-일간의 새로운 접근수단으로 각광받고 있는 크루즈 유치를 위해 'にっぽん丸(닛폰마루)'라는 일본선적 크루즈를 보유한 쇼센미츠이(商船三井)와 '飛鳥II(아스카 2)'라는 크루즈를 운항하고 있는 유센크루즈(郵船クルーズ)를 방문할 계획이다.이번 방문에서 크루즈 제주기항 관련 신규 인센티브(안)을 소개함으로써 연내 신규취항 및 추가 기항을 위한 협의를 진행할 예정이다.또 같은 시간 도쿄 그랜드하얏트 호텔 볼룸웨스트에서는 한국관광공사가 마련한 한국관광교류페스티벌의 일환으로 일본현지 여행업계와의 실질적인 비즈니스 기회 창출을 위한 트래블마트에도 참가한다.도와 공사는 트래블마트 참가를 통해 일본 현지의 여행업계, 유관기관, 언론인 등을 대상으로 제주의 계절별 축제와 이벤트, 신규콘텐츠들을 소개함으로써 다양한 제주상품이 만들어질 수 있도록 유도할 계획이다.이날 오후 6시30분 도쿄 그랜드하얏트 호텔 볼룸이스트에서는 한국관광교류페스티벌의 일환으로 '2016-2018 한국방문의 해' 개막식이 열린다.개막식에는 정창수 한국관광공사 사장을 비롯, 유흥수 주일대사, 한경아 한국방문위원회 사무국장, 양무승 한국여행업협회 회장 등 한국 방문단 100여명과 JATA(일본여행업협회), JNTO(일본정부관광국) 등 일본 현지의 관광관련 기관, 기업, 단체 등의 대표가 참석한다.이날 개막식에서는 한국방문의 해 개막을 일본 전국에 알리고, 일본인관광객의 방한(訪韓) 및 제주방문 수요를 환기시키게 된다.이튿날인 18일 오전 9시30분에는 일본인관광객 활성화를 위한 공동노력을 추진하기 위해 제주관광공사와 일본 유력여행사 중 하나인 블루스카이가 업무협약을 체결할 예정이다.양측은 이번 업무협약을 통해 연내 8000명을 목표로 주요 고객층별 특화콘텐츠 개발, 맞춤형 신규상품 개발, 전세기/크루즈 등 신규접근성 발굴 등을 추진하게 된다.이어 18일 오후에는 보다 많은 현지업계와의 상품개발 및 모객활성화를 위해 HIS와 JTB 등 일본 내 대형여행사를 방문, 신규상품 개발과 접근성 발굴, 모객활성화를 위한 업무협의를 펼칠 계획이다.마지막날인 19일에는 장소를 나고야로 옮겨서 제주관광공사, 일본 4곳의 제주관광공사 홍보사무소 소장, 한국관광공사 및 유관기관이 참석하는 '일본관광 위기극복 워크샵'을 연다.'일본관광 위기극복 워크샵'은 제주방문 일본인관광객의 급감에 따른 공동대응을 위해 크게 제주 인지도 개선, 제주상품 패러다임전환, 접근성 안정화 등을 주된 주제로 진행된다.이날 워크샵에서는 지역별 동향의 공유와 세부사업 내용 수립을 통해 공사-홍보사무소-한국관광공사-현지업계가 더욱 유기적으로 일할 수 있도록 협의하게 된다.제주관광공사 관계자는 “이번 현지프로모션은 단순히 제주에 대한 이미지 홍보만이 아니라, 접근성 개선이나 상품개발 등 실질적인 비즈니스 성과를 창출할 수 있는 방향으로 기획됐다”고 설명했다.이어 “특히 현지 여행업계의 니즈를 반영한 인센티브(안)과 제주 관련 다양한 콘텐츠의 제공을 통해서 매력 있는 제주상품을 개발하고 홍보한다면, 일본관광시장 정상화를 크게 앞당길 수 있을 것이다”고 기대했다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 일본 현지서 관광객 유치에 전력 &lt; 관광 &lt; 생활경제 &lt; 기사본문 - 제주도민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체 뉴스 정치행정 생활경제 사회 교육 문화 스포츠 오피니언 데스크논단 기고 기자수첩 칼럼 기획·특집 인터뷰 기획·분석 지난기획/분석 도민광장 일과 사람들 인물 시민기자 열린광장 공지사항 facebook twitter kakaostory e-mail 검색버튼 네이버 뉴스스탠드 기사검색 검색 로그인 회원가입 최종편집 : 2022-10-11 11:18 (화) 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 일본 현지서 관광객 유치에 전력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 생활경제 관광 제주도관광협회, 일본 현지서 관광객 유치에 전력 기자명 고연정 기자 입력 2016.02.17 14:03 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 일본 마라톤대회 참가 등 우호교류단체와 레저·스포츠 비즈니스 마케팅 펼쳐 ▲ '제8회 아리타시미캉카이도마라톤대회'에 참가한 제주 교류단.[제주도민일보=고연정 기자] 제주도와 제주도관광협회가 일본 와카야마현 아리타시를 방문, 일본인 방한 관광시장의 활성화를 위해 비즈니스 마케팅을 펼쳤다.도와 도관광협회(회장 김영진)는 지난 12일부터 16일까지 일본 와카야마현 아리타시에서 열린 제8회 아리타시미캉카이도마라톤대회(有田市蜜柑海道マラソン大會)에 참가했다고 밝혔다.제주 교류단은 이와 함께 아리타시관광협회(회장 하나다 유)와의 민간 스포츠 교류 활성화와 고부가가치 맞춤형 제주관광 상품 현장 로드홍보를 진행하는 등 협력 비즈니스 마케팅을 추진했다.제주 교류단은 아리타시관광협회와의 간담회에서 양 지역 간 마라톤 교류 활성화 및 발전 방안 논의와 질적 성장을 위한 고부가가치 레저·스포츠 상품 개발 등을 논의했다.이를 통해 오는 5월29일 열리는 제21회 제주국제관광마라톤축제에 일본인 참가자 유치 확대 및 침체돼 있는 방한시장 회복을 위해 상호 적극 노력하기로 했다.특히 모치즈키 요시오 아리타시 시장, 후쿠나가 히로쯔구 아리타시의회 의장, 미야이 키요아키 아리타상공회의소 회장 등 아리타시의 주요인사들이 주요특산물인 밀감과 해안도로(미캉카이도)라는 공통점에 큰 관심을 나타내어 제21회 제주국제관광마라톤축제에 참가하겠다는 의사를 표명한 것으로 전해졌다.제주 교류단은 관서제주특별자치도민협회도 방문해 홍범주 관서도민협회장을 비롯 재일본대한수영연맹 회장이자 체육협회 회장인 김일파 회장과 간담회를 가졌다.교류단과 양 협회는 이 자리에서 레저·스포츠 관광객 유치를 위한 교류를 적극적으로 펼쳐 나갈 것을 약속했다.이번 방문에서 인바운드 전문 제주토종 대형여행사인 제이트립은 일본 여행사와의 네트워크를 적극적으로 구축해 나갈 것을 알렸다. 아울러 제주-일본 직항노선 활성화 방안 논의를 통해 제주관광과 제주도민의 상생 발전 및 일본 관광시장 활성화를 기대하게 했다.도관광협회 관계자는 “우호교류단체와의 지속적인 스포츠 교류 확대 및 협력 비즈니스 마케팅 전개로 침체돼 있는 일본관광시장 회복을 위해 전력을 다하겠다”고 말했다. 고연정 기자 jjibi@naver.com 다른기사 보기 저작권자 © 제주도민일보 무단전재 및 재배포 금지 당신만 안 본 뉴스 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 제주에서 드론으로 4일간 피자 배달나서 혈세 투입 ‘제주도 법정계획’...타 지자체 용역 그대로 베껴 이선화 ICC 사장 후보자, 자질 부족 속 청문 결과 ‘적격’ 해외입국자 입국 1일차 PCR 의무검사 중단 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 국힘 제주도당 "이선화 임명은 吳도정 인사참사" '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 제주개발공사 주최 ‘제12회 제주물 세계포럼’ 개막 제주관광공사 "메타버스에서 만나는 제주 "크리에이터 공모전 제12회 아시아기후변화교육센터 국제워크숍 개최…10월 6일 27년만에 본교 승격 선흘초, 기적의놀이터 개장 오늘의 주요뉴스 [자치행정] ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 [경제일반] 제주에서 드론으로 4일간 피자 배달나서 [사회일반] 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ [관광] 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 [정치일반] 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 제주향토자원이야기Ⅶ 불교의 상징 보리수나무…심혈관계 개선 '약재' 효과 '참나무' 불리는 상수리나무…버릴거 없는 '팔방미인' 마을 지켜주던 신목 '생달나무'…약재·건축자재 활용 다양 관절 특효 '쇠무릎'…닭발과 환상 콜라보 흔하디 흔한 잡초 '쇠비름'…효능만은 '만병통치약' 제주 들녘에 흔한 '엉겅퀴'…음주전후 숙취해소 '탁월' 백숙에 넣는 음나무…한약재·길상목 넘어 향장산업 '노크' 한의학서 보약 제주광나무, 향장 원료 '발돋움' 사건사고 한림읍 월령리 게스트하우스서 화재 애월읍 광령리에서 창고 화재 한림서 수영 중 파도에 떠밀려가던 男 구조 조천읍 함덕에서 숙박시설 화재 서귀포 비닐하우스 화재…인명피해 없어 인기뉴스 댓글많은기사 실시간댓글 1 제주에서 드론으로 4일간 피자 배달나서 2 내주부터 2가백신 추가접종...6일 신규 확진 ‘179명’ 3 40년 만 미국 덮친 인플레이션...제주경제 돌파구는? 4 제주시, 투기 목적 농업법인에 “칼 빼” 5 제주지방기상청, 9월 태풍 폭우로 얼룩져…고온 동반 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 7일 시작된 한글날 연휴, 제주 찾는 행렬 18만명 넘어 8 ‘금호건설 컨소시엄’ 제주하수처리장 현대화사업 첫 우위 9 ‘대한민국 드론 메카’ 제주서 드론산업 발전방안 논의 10 내달 24일부터 1회용품 종이컵, 빨대 등도 제공·사용금지 1 다목적 헬기 한라매, 골든타임 확보로 도민 안전 지킴이 "톡톡" 2 ‘15분 도시 제주’ 상상이 현실로...멘토에게 묻다 3 제주시 3층 상가건물 화재…전기적 요인 추정 4 “오영훈 취임 100일 기자회견, 미래도 희망도 보이지 않아” 5 제주시, 투기 목적 농업법인에 “칼 빼” 6 ‘1인 40만원’ 제주 어업인수당 11월 지급 7 제주에서 드론으로 4일간 피자 배달나서 1 악수하면 처 웃을ㄸㅐ냐 민개당아 지역 경제 좀 활성화 시켜라 ㅅㅂ 2 공항건설도 거부한 민주당 놈에게 바랄걸 바래라 3 신공항이나 만들어라 하는짓 보면 개 가 굴러가며 웃겠다 4 제2공항건설하여 서귀시민 불편해소하자 비행기타러 제주공항갈때는 욕이절로나온다 5 개소리 설레발 떨지말구 효과없이 불필요한 "과속방지턱" 이나 절반 없애라 그래야 차두 안망가지고 사고도 덜난다 선진국에서 는 방지턱 없애는것이 추세다 자슥아 6 이제 하늘도 안심할 수 있는 공간이 아닌건가... 웽웽웽..... 언제 떨어질지 몰라 이리저리 피하느라 힘들것네. 7 진작에 했어야지. 이제라도 정신차렸으니 철저히 조사해 불법이 있으면 엄중한 벌을 주기바람 제주날씨 11일 제주, 당분간 쌀쌀해…한라산에는 서리 내려 ::: 지난기획 / 분석 ::: 문근식칼럼 한라대기획 제주향토자원이야기Ⅰ 제주향토자원이야기Ⅱ 제주향토자원이야기Ⅲ 제주향토자원이야기Ⅳ 제주향토자원이야기V 제주향토자원이야기Ⅵ 제주특성화고 알암수과 특성화고 2019다문화가정 제주 바로알기 JDC와 함께하는‘지역마을 공동체 JDC와 함께하는 제주형국제자유도시 좌승훈 칼럼 jeju&amp;joy 창간1주년 특집 10대 뉴스 신년 특집 창간2주년 특집 Photo 에세이 제주체육, 이제는 달라져야 한다 당신의 오늘은 어떻습니까 생생교육 환경자산, 제주의경쟁력 스마트그리드 미래 국제자유도시 10년 질좋은 일자리가 희망 리스타트 하천파괴 온난화 바다의 경고 지역신문 위기와 기회를 말한다 제주생활사 이삭줍기 인권을말하다 제주미래 성장동력을 찾아라 제주 속 제주사람들 오늘 이사람 재능기부 꿈틀 20대 이정원의 영화는 맛있다 주민참여예산제도가 답이다 동행 아이스 심포니 월드를 말한다 사랑의 프로보노 추억의 제주섬 예술사 월요일에 만난 사람 바이오 산업 한미 FTA 쉽게 보는 (제주의)신+재생에너지 건강한식탁 로컬푸드 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 제주특별자치도 제주시 백포남길 6-1 Tel : (064)744-9494 Fax : (064)744-9497 e-mail : domin@jejudomin.co.kr 발행인 : 성일승 편집인 : 진순현 사업자등록번호 : 616-86-06273 인터넷신문사업등록번호 : 제주 아-01046 창간일 : 2010-06-05 등록일 : 2013-06-19 청소년보호책임자 : 진순현 Copyright © 2022 제주도민일보. All rights reserved. mail to domin@jejudomin.co.kr 위로 전체메뉴 전체기사 정치행정 전체 정치일반 이슈 자치행정 6.1지방선거 생활경제 전체 경제일반 관광 농수축산 이슈 생활일반 2019조합장선거 사회 전체 사회일반 국제 복지 이슈 날씨 교육 전체 교육일반 대학 이슈 문화 전체 문화일반 전시·공연 BooK 이슈 축제 연예 전체 방송/연예 스포츠 전체 이슈 스포츠일반 오피니언 전체 데스크논단 기고 기자수첩 칼럼 기획·특집 전체 인터뷰 기획·분석 지난기획/분석 도민광장 전체 공지사항 열린광장 자유게시판 일반기고 일과 사람들 민원 119 인물 주민제안창구 시민기자 포토 전체 정치 생활경제 자치행정 사회 교육 문화 스포츠 국제/연예 오피니언 해군기지 제92회 전국체육대회 국제 화보 4·3 제주해녀 4·11총선 사진으로 보는 추억의 제주 독자공감 시정뉴스 전체 제주시 서귀포시 Today 전체 행사 화촉 부고 제2공항 전체 지역마을시선 행정당국시선 시민사회시선 이모저모 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 민군복합형관광미항 개항 실무지원팀 운영 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 민군복합형관광미항 개항 실무지원팀 운영 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 민군복합형관광미항 개항 실무지원팀 운영 송고시간2016-02-17 18:05 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 제주도 민군복합형관광미항 개항 실무지원팀 운영 제주민군복합형관광미항 전경 (제주=연합뉴스) 김호천 기자 = 제주도는 18일부터 민군복합형관광미항 개항을 준비할 실무지원팀을 구성해 운영한다. 해양수산국장을 팀장으로 해양산업과, 해운항만과, 민군복합형관광미항갈등해소지원단, 수자원본부 소속 직원 10명으로 구성된 실무지원팀은 내년 7월 크르주항 개항 때까지 운영된다. 광고 실무지원팀은 민군복합형관광미항 크루즈부두 계류시설은 물론 승·하선, 여객 이동, 급수, 주차, 보안 등 각종 운영지원시설 설치 업무를 챙긴다. 수역시설 고시와 예인선 확보, 관제시설, 검역·입국·세관(CIQ) 등 유관기관과의 업무 협의 사항을 처리한다. 내년 3월 말까지 크루즈 관광객 지원시설을 완료하고, 항만 보안, 관제시설 등을 갖춰 4월부터 6월까지 시범 운항을 할 계획이다. 도는 앞서 크루즈선사에는 내년 7월 이후 10만t급 이상 크루즈선의 민군복합형관광미항 입항일정을 이달 말까지 신청하도록 요청했다. 신청 접수가 마감되면 상반기에 내년 크루즈 입항 일정을 확정할 예정이다. 지금까지 민군복합형관광미항 남방파제의 접안시설과 계선주(선박 접안 시 계류용 밧줄을 걸기 위한 기둥), 서방파제의 계선주, 식수 공급을 위한 관로, 방파제 내측 가로등 등을 설치했다. khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/02/17 18:05 송고 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 영상 기사 재생시간 01:37 [영상] 푸틴 "크림대교 폭발은 우크라 테러"…'핵 공격' 시계 빨라지나 영상 기사 재생시간 02:50 [영상] 크림대교 폭발로 3명 사망·상판붕괴…푸틴, 인프라 보안 강화령 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:11 [영상] 부산이 '들썩'…이지은이라 가능한 열기 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 서울서 50대 권총에 맞아…"극단적 선택 추정" 80대 아버지 흉기로 찔러 살해…60대 아들 검거 혼자 사는 70대 여성 살해하고 달아난 50대 검거 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 북, SLBM 요격회피 저수지서 쐈다…열차 이은 새 발사 플랫폼(종합) 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) '포항 주차장 참사' 중학생, 한 살 부족해 보험금 못받아 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" 요트 타고 한국에, 자전거로 북극에…러 징집 회피 백태 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 박민지, 세계랭킹 16위…한국 선수 중 다섯 번째 kt, NC 꺾고 3위 사수…박병호 연타석 대타 홈런 폭발 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 선우은숙, 4살 연하 아나운서 유영재와 재혼 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 03:34 [영상] 미 언론 "러시아 지도부 분열상 포착"…"푸틴 축출 징후는 없어" 영상 기사 재생시간 02:37 [영상] BTS 병역 국감서도 핫이슈…병무청장 "복무가 바람직" 뉴스 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 국감 2R '최대 격전지' 감사원 국감, 시작 9분만에 파행 크림대교 폭발, 보복 악순환 불당기나…우크라전 최악 확전 기로 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 광고 댓글 많은 뉴스 김의겸 "한동훈, 이재명 수사차 美출장"…韓 "내부고발하나" 댓글수 31 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 26 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 14 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>백령여행사, 백령 어르신 제주도 효도관광 지원 - 인천일보 × 전체기사 정치 전체 정치종합 인천 경기 지방자치 자치의정 6·1 지방선거 지방선거 경제 전체 경제종합 인천 경기 공항·항만 산업·증권 부동산 사회 전체 사회종합 인천 경기 교육 사건·사고 문화 전체 문화종합 예술·예술인 전시·공연 책과사람 오늘의 운세 스포츠 전체 스포츠 종합 야구 축구 농구 배구 기획특집 전체 기획 특집 뉴스 인사이드 시민편집위원회 인터뷰 금요초대석 인천일보 평화연구원 포토뉴스 전체 사회포토 정치포토 6·1 지방선거 오피니언 전체 사설 기고 썰물밀물 편집국칼럼 현장에서 오늘 인천 만평 지역뉴스 전체 지역종합 경기북부 경기서부 경기중부 경기남부 경기동부 사람들 전체 인천사람들 경기사람들 새얼굴 결혼 부고 본사손님 생활정보 이슈·문화 잇츠뉴스 전체 잇츠스페셜 잇츠연구소 빽투더인천 놀터뷰 카드뉴스 영상뉴스 비주얼뉴스 인천일보TV 전체 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 연예 전체 국내연예일반 방송 영화 음반 해외연예 알림 전체 인천일보 인사 인사 사고 정정 게시판 개업 UPDATED. 2022-10-11 11:29 (화) 지면보기 인천일보아카데미 홈 로그인 회원가입 모바일웹 기사제보 전체메뉴 버튼 뉴스 정치 정치종합 인천 경기 지방자치 자치의정 사회 사회종합 인천 경기 교육 사건사고 경제 경제종합 인천 경기 공항·항만 산업·증권 문화 문화종합 예술·예술인 전시·공연 책과사람 오늘의운세 스포츠 스포츠종합 야구 축구 농구 배구 포토뉴스 사회포토 정치포토 기획특집 기획 특집 뉴스 인사이드 新 고려도경 금요초대석 인천일보 평화연구원 시민편집위원회 기획특집 모아보기 오피니언 사설 기고 썰물밀물 편집국칼럼 현장에서 만평 지역뉴스 경기북부 경기서부 경기중부 경기남부 경기동부 지역종합 사람들 인천사람들 경기사람들 새얼굴 결혼 부고 잇츠뉴스 잇츠스페셜 잇츠연구소 빽투더인천 카드뉴스 영상뉴스 인터랙티브 뉴스 인천일보TV 종합 100초 브리핑 인천일보PICK 너무궁금해서 사건사고 오늘의 현장 시민기자 검색버튼 기사검색 검색 백령여행사, 백령 어르신 제주도 효도관광 지원 기사공유하기 프린트 메일보내기 본문 글씨 키우기 본문 글씨 줄이기 홈 사람들 인천사람들 백령여행사, 백령 어르신 제주도 효도관광 지원 정회진 승인 2016.02.16 00:05 수정 2016.02.15 21:21 댓글 0 SNS 기사보내기 페이스북 트위터 카카오톡 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 프린트 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북 트위터 카카오톡 URL복사 × 서해최북단 섬 인천 옹진군 백령도에 살고 있는 어르신 25명이 15일부터 2박 3일간의 일정으로 제주도를 찾아 즐거운 여행을 즐긴다. 백령도 섬 내에서 여행사를 운영하고 있는 ㈜백령여행사가 지역 어르신들을 위해 매년 제주도 무료 효도관광을 제공하고 있다. 최대정 백령여행사 대표는 "아름다운 섬 백령도에서 여행사를 운영하고 있는 만큼 작게나마 지역을 위한 환원사업의 일환으로 어르신들에게 효도관광을 시켜드리고 있다" 말했다. 이번 효도관광을 위해 제이디건설, 피아이건설 등 지역내 업체들의 따뜻한 관심과 후원도 이어졌다. /정회진 기자 hijung@incheonilbo.com 저작권자 © 인천일보-수도권 지역신문 열독률 1위, 무단전재 및 재배포 금지 다른기사 보기 정회진 기자 hijung@incheonilbo.com 복지시설 내 '갑질' 막아라…동구, 관리·감독 강화키로 인천세종병원 RPA 개발 성과 공유 [직장내 갑질 멍든 사회복지사들] 3. 조직문화 변화 급선무 최근댓글보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인천일보TV [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 사상초유 교원정원 감축에 커지는 교육계 반발 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] 12년 만의 통합 우승, 한국시리즈만 남았다 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] "고발 후 책상 사라져"…곪아터진 사회복지 내 갑질들 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [잇츠브리핑] 인천, 국토부·경기와 경인고속도로 지하화 협약 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 [인천에 온 이주민들] 11. 화교의 유산, 자장면과 팔괘장 기획특집 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 [인천 미래 가꿈 프로젝트] 초일류도시, 철저한 준비에서 시작된다 [초선에 바란다] 이철조 고양시의원 “진정한 심부름꾼 되겠다” [비극의 현장 '선감학원' 그 후] 1. 그곳에 사람이 살고 있다 [디아스포라 인천] ⑪화교의 유산, 자장면과 팔괘장 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]유정복 인천시장, 민선8기 출범 100일 비전 선포 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [카드뉴스]경기도 지자체, 자립준비청년 홀로서기 지원 [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [잇츠레터]배후설 나오자 입 연 윤 "시간적 여유 없다" [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [카드뉴스]경기도 기간제 일자리 찾기, '잡아바 어플라이' [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" [잇츠레터]한밤중 불길·폭발…"군부대 쪽이라 전쟁 난 줄" 많이 본 뉴스 오늘 주간 월간 1수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 2수원발 KTX·7호선 연장선 정시 개통 '물거품' 3인천공항공사 '4→3급 특별승진' 뒷말 무성 4인천‧수원발 KTX 2025년 개통 무산, 빨라야 2027년부터 운행 5“상가주택 짓고 있는데…가로주택 정비 조합 동의하라고요?” 63년 만에 열린 대한민국 막걸리축제 인산인해...세계무형문화 등재 속도 7유정복 시장, 대통령 만나 제물포 르네상스 등 핵심 공약 지원 요청 8하나님의 교회, 시흥과 은평서 헌당기념예배 개최 9몸집 줄인 '인천도서관' 인천시의회 심의 앞둬 10[뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 1암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 2"무식한 소리" 메시지 파장…윤 대통령 입 열었다 3"전쟁 난 줄" "비행기 추락했나" 밤새 공포에 떤 시민들 4한국시리즈 직행 SSG, 12년만에 '통합우승' 노린다 5수억 원 썼지만 ‘텅 빈 자리’…포천축제 개선 시급 6[구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 7[비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 8'농촌빈집 증가' 가팔라…철거비 연 수억 9전기차 60대 동시충전…송도국제도시에 메가와티 등장 10수원발 KTX·7호선 연장선 정시 개통 '물거품' 1'80만원 당첨' 복권 들고 간 남성이 들은 뜻밖의 말 2소래포구축제, 4년만에 열린다…박창근·김동현·이솔로몬 축하공연 3“점포 안에 나무만한 기둥이…” 미추홀구 신축 상가 수분양자들 분통 4젊은 활기 떠나고 13년째 적막만…인천대 제물포캠 슬럼화 5[단독] 전기요금 못 낸 양주한국병원, 16일 전기 공급 중단 6순방 후 첫 출근, 윤 대통령에 '비속어 논란' 묻자… 7암초 만난 '제2경인선 광역철도 사업'…인천시, 돌파구 '부심' 8[영종, 차별의 섬에서 기회의 땅으로] 개발이 할퀸 영종, 다시 '희망의 땅'으로 9송도 세브란스-배곧 서울대병원, 진검승부 '예고' 10한국지엠 부평공장, '전기차 생산 유치' 가능성 커졌다 포토뉴스 [포토] 가을 추위 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 [포토] 부평구 채용박람회…내 일자리는 [포토] 가을 추위 [포토] 한글날 걸린 태극기 파손 [포토] 고사리손으로 만든 월병 [포토] 타이완 건국 기념일 '신나는 사자춤' [포토] 이민 120주년 흔적을 엿보다 [포토] 송도에 모인 세계 한인회장들…“우리는 누구이며 어디로 가나” [포토] 넋놓고 푹빠진 오산 독산성 문화제 [포토] 쌍십절 앞둔 차이나타운 '붉은 물결' [포토] 부평구 채용박람회…내 일자리는 기획특집 뉴스 인사이드 [뉴스 인사이드] '광교신도시 개발이익금' 분쟁, 결국 중재심판으로 2022.10.10 인터뷰 강성삼 하남시의회 의장, “초심 잃지 않는 의장 되겠다” 2022.10.10 기획 [인천을 빛낸 중소기업협동조합인] 4. 배종국 인천자동차검사정비사업협동조합 이사장 2022.10.10 기획 [비극의 현장 '선감학원' 그 후] 3. 근현대사 문화재 등록 추진 '백지화' 2022.10.05 구도 인천(球都 仁川) [구도 인천] 김광현 이전, 인천 마운드 지배했던 '원조 왼손 에이스' 2022.10.05 기획 [비극의 현장 '선감학원' 그 후] 2. 경기도·안산시가 방치한 건물…정밀안전진단 D등급 2022.10.04 천년밥상, 경기米이야기 [천년밥상 경기米이야기, 농쌀직썰] 제 22화 세계에서 가장 오래된 청주 소로리 볍씨 2022.10.04 新 고려도경 [新고려도경] 8. 인천의 보물선, 서해바다에서 발견된 난파선들 2022.10.04 법인명 (주)인천일보 본사 (22313) 인천광역시 중구 인중로 226 (옛 항동4가 18-1) 대표전화 032-4520-114 팩스 032-4520-113 경기본사 수원시 팔달구 효원로 119 청궁빌딩 5층(옛 결혼회관) 대표전화 031-232-2288 팩스 031-232-2260 제호 : 인천일보 등록번호 : 인천 아01330 등록일 : 2018-01-26 발행·편집인 : 김영환 청소년보호책임자 : 김도현 인천일보 모든 콘텐츠(기사, 사진, 영상)는 저작권법의 보호를 받습니다.무단 전재, 복사, 배포를 금합니다. Copyright © 1988-2022 인천일보. All rights reserved. mail to webmaster@incheonilbo.com 인트라넷 CMS 회사소개 광고문의 제휴문의 구독신청 소외계층 구독지원 신청 독자투고 고충처리 윤리강령 개인정보처리방침 청소년보호정책 불편신고 저작권문의 시민편집위원회 기사제보 위로</t>
+  </si>
+  <si>
+    <t>백령도 어르신들, 올해도 제주도 무료 효도관광 주메뉴 바로가기 본문 바로가기 2022.10.11 (화) 구름많음동두천 11.3℃ 맑음강릉 17.4℃ 맑음서울 12.3℃ 구름조금대전 13.8℃ 맑음대구 14.8℃ 맑음울산 15.5℃ 맑음광주 16.2℃ 맑음부산 16.5℃ 맑음고창 16.3℃ 구름많음제주 18.0℃ 맑음강화 12.1℃ 맑음보은 12.3℃ 구름조금금산 13.3℃ 구름조금강진군 16.6℃ 맑음경주시 15.4℃ 맑음거제 16.4℃ 기상청 제공 기사제보 기사문의 회원가입 로그인 검색창 열기 PDF 지면신문 보기 온라인구독 열기 닫기 메뉴 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 닫기 뉴스 정치 사회 경제 문화 체육 인천 지역 생활 사진 국제 기획 사설/기고 사람들 인터뷰 인사 사고 부고 결혼 독자공간 알림 우리동네 제보/투고 보도자료 사회공헌 보도평가위 불편신고 구독신청 제휴문의 광고문의 뉴스 지역 백령도 어르신들, 올해도 제주도 무료 효도관광 백령여행사, 10년째 지원 윤용해 기자 youn@kgnews.co.kr 등록 2016.02.15 20:36:27 9면 목록 메일 프린트 스크랩 글씨크기 크게 글씨크기 작게 서해최북단 섬 인천시 옹진군 백령도에 살고 있는 어르신 25명이 15~17일 2박 3일간의 일정으로 따뜻한 남쪽 섬 제주도를 찾아 즐거운 여행을 만끽한다. 백령도 어르신들의 제주도 여행은 10년째 계속되고 있다. 백령도 섬 내에서 여행사를 운영하고 있는 ㈜백령여행사가 지역 어르신들을 위해 매년 제주도 무료 효도관광을 제공하고 있다. 최대정 백령여행사 대표는 “아름다운 섬 백령도에서 여행사를 운영하고 있는 만큼 작게나마 지역을 위한 환원사업의 일환으로 어르신들에게 효도관광을 시켜드리고 있다”고 말했다. 이번 효도관광을 위해 제이디건설, 피아이건설, 제일건설개발, 해송여행사, 서울우유, 서해여행사, 나나렌트카 등 지역 내 업체들의 따뜻한 관심과 후원도 잇따랐다. 백령여행사 관계자는 “백령도 주민이며 오랜 기간 거주하신 분을 대상으로 여행접수 명단 중 처음 신청하신 분, 연세가 많으신 분을 우선으로 선정했으며 이번 여행을 통해 유쾌하고 활력 넘치는 생활이 되기를 바란다”고 말했다. /윤용해기자 youn@ 윤용해 기자 의 전체기사 보기 페이스북 트위터 카카오톡 카카오스토리 네이버블로그 네이버카페 밴드 저작권자 © 경기신문 무단전재 및 재배포 금지 많이 본 기사 더보기 1 [단독] 육군 장교, 부대 회식 후 극단적 선택 2 한국은행 기준금리 인상 불가피…인상 폭 관심 집중 3 ‘가스누출 추정’ 일가족 참사에 尹 “취약계층 세심한 대책” 지시 4 "재정자립도 낮은데…" 인천시 1000만원 첫만남이용권 공약 기초단체 협의 '험로' 예상 5 내일부터 ‘오미크론 대응’ 개량백신 접종 시작 6 박명순 성남시의원, 전문성 인사 채용 및 스피드 행정 요구 7 kt 위즈 NC 다이노스 5-2 꺾고 리그 3위 유지 에디터 추천 기사 정치 경기도 다회용기 사용 지원 사업 1년째…실효성은 의문 정치 ‘道 추경처리 불발’ 도당 장외전…국힘 “문제없다” vs 민주 “발목잡기” 정치 [국감] ‘한 방’ 없는 尹 정부 첫 국정감사…고성·막말로 얼룩진 국회 체육 이민정(시흥시청) “전국체전 개인전 첫 메달 기뻐…목표는 아시안게임” 실시간 기사 더보기 “추가연장근로제 폐지 대책 없어”…30인 미만 중기 절반이상 ‘일몰 반대, 제도 유지’ 타슈켄트 인하대 학위수여식, 개최 293명 인하대 학위 취득 오락가락 이른 추위에 ‘삭제’된 가을 날씨…왜? 포은 정몽주 선생 기리는 제18회 용인 포은문화제 14~16일까지 명상으로 몸과 마음 정화…수원시립미술관, '비포 선라이즈' 참가자 모집 제4회 경기도지사배 전국사격대회 15일 개막 경기도자미술관 문화예술교육 프로그램 ‘흙이랑 나랑’ 참가자 모집 경기도여성가족재단, 여성 청년 1인가구 위한 ‘자기방어훈련’ 참여자 모집 경기문화재연구원, 태봉·태실 학술좌담회 12일 개최 [조헌정의 '오늘의 성찰'] 자신을 안다는 것은? COMMUNITY 알림 제보 보도자료 사회공헌 지면평가위 윤리강령 구독신청 불편신고 뉴스메일링 COVER STORY 147호 2022-10-11 구독신청 지난호보기 독자투고 기사제보 147호 146호 145호 144호 143호 142호 141호 140호 139호 138호 137호 136호 135호 134호 133호 132호 131호 130호 129호 128호 127호 126호 125호 124호 123호 122호 121호 120호 119호 118호 117호 116호 115호 114호 113호 112호 111호 110호 109호 108호 107호 106호 105호 104호 103호 102호 101호 100호 99호 98호 97호 96호 95호 94호 93호 92호 91호 90호 89호 88호 87호 86호 85호 84호 83호 82호 81호 80호 79호 78호 77호 76호 75호 74호 73호 72호 71호 70호 69호 68호 67호 66호 65호 64호 63호 62호 61호 60호 59호 58호 57호 56호 55호 54호 53호 52호 51호 50호 49호 48호 47호 46호 45호 44호 43호 42호 41호 40호 39호 38호 37호 36호 35호 34호 33호 32호 31호 30호 29호 28호 27호 26호 25호 24호 23호 22호 21호 20호 19호 18호 17호 16호 15호 14호 13호 12호 11호 10호 9호 8호 7호 6호 5호 4호 3호 2호 1호 신문사소개 고충처리인 윤리강령 찾아오시는 길 개인정보처리방침 청소년보호정책 (책임자 : 배덕훈) 전자우편 무단수집거부 제보 불편신고 경기도 용인시 기흥구 흥덕4로 15번길 3-11 (영덕동 1111-2) 경기신문사 | 대표전화 : 031) 268-8114 | 팩스 : 031) 268-8393 | 청소년보호책임자 : 배덕훈 법인명 : ㈜경기신문사 | 제호 : 경기신문 | 등록번호 : 경기 가 00006 | 등록일 : 2002-04-06 | 발행일 : 2002-04-06 | 발행인·편집인 : 김대훈 | ISSN 2635-9790 경기신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2020 경기신문. All rights reserved. mail to webmaster@kgnews.co.kr UPDATE: 2022년 10월 11일 12시 10분 최상단으로 기사검색 전체 전체 제목 부제목 기자이름 본문 검색어를 입력해주세요 검색하기 검색창 닫기</t>
+  </si>
+  <si>
+    <t>KT, 제주도와 ‘스마트 관광섬’ MOU…총 225억 원 투자 &lt; 솔루션 &lt; 뉴스 &lt; 기사본문 - 아이티데일리 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체메뉴 버튼 뉴스 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 기획특집 취재.txt 특별부록 인터뷰·사람들 인터뷰 사람들 기업 분석 기고·강좌 솔루션 리뷰·사례 컨퍼런스 로그인 회원가입 검색 주요뉴스 AI 화물운송 플랫폼 스타트업 센디, 간편식 전문 플랫폼 윙잇에 콜드체인 운송서비스 제공 안랩, 사내 ESG 환경 특강 ‘기후위기 시대의 한국경제와 한국기업’ 개최 [인사] 컴볼트, 아세안 및 한국·일본·홍콩 담당 프리세일즈 책임자에 다니엘 탠 선임 씽크포비엘, NIPA ‘AI 융합 에너지 효율화’ 1년차 사업 막바지 ‘담금질’ 곰앤컴퍼니, ‘곰믹스’ iOS 버전 공식 출시 씨앤에이아이, ‘대전형 융합신산업 창출 특구기술 실증 선도사업’ 최종 선정 한국전자통신연구원, ‘2022 자율성장 인공지능 경진대회’ 성료 모션투에이아이, 물류센터 DX 솔루션 ‘모션인사이트’ 출시 아크릴, 전립선 증식증 솔루션 및 신규 감염병 대응시스템 선봬 알서포트, ‘리모트미팅’에 3D 아바타 및 리액션 이모티콘 적용 00:00 기사제보 구독신청 닫기 뉴스 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 기획특집 취재.txt 특별부록 인터뷰·사람들 인터뷰 사람들 기업 분석 솔루션 리뷰·사례 기고·강좌 본문영역 이전 기사보기 다음 기사보기 KT, 제주도와 ‘스마트 관광섬’ MOU…총 225억 원 투자 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 뉴스 솔루션 KT, 제주도와 ‘스마트 관광섬’ MOU…총 225억 원 투자 기자명 이덕웅 기자 입력 2016.02.15 00:34 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 1,100여개 무료 기가 와이파이 네트워크 구축, 관광객 편의 증대 ▲ 황창규 KT 회장(왼쪽)과 원희룡 제주도지사(오른쪽)[아이티데일리] 제주도가 기가 인프라를 갖춘 ‘스마트 관광섬’으로 탈바꿈한다. 이에 따라 제주도를 찾는 외국인 관광객이 증가하는 것은 물론 제주 지역경제도 활성화될 것으로 예상된다.KT는 제주특별자치도와 ‘제주 스마트 관광섬 구축을 위한 업무협약’을 체결했다고 12일 밝혔다. 그동안 KT는 제주도에 기가 IoT 및 인프라 구축 노하우를 바탕으로 미래관광 사업모델을 제시해 왔다.이번 협약에 따라 KT그룹은 총 225억 원 규모를 투자해 스마트 관광섬 인프라를 구축하고, 제주 지역의 외국인 관광객 증가와 주민의 실질적 소득 증대에 기여할 계획이다.KT는 5년간 143억 원을 투자해 ‘기가 와이파이’, ‘기가 인터넷’, ‘기가 비콘’ 등 기가 인프라 기반의 네트워크 서비스를 제공한다. 이로써 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있는 기가 와이파이 네트워크 1,100여 곳이 구축된다. BC카드와 KTH 등 그룹사도 82억 원을 투자하는 등 전 KT그룹 차원에서 힘을 모으게 된다.또한 KT는 그룹사인 BC카드, KTH, KT IS와 공동으로 지리정보시스템(GIS) 기반의 스마트관광 플랫폼을 구축한다. 스마트관광 플랫폼은 관광객의 빅데이터를 활용한 소비패턴 분석 등으로 관광정책 수립에 도움을 주고, 외국인 관광객들이 보다 쉽게 내국세 환급(Tax Refund) 등 혜택을 누리는데 기여할 것으로 예상된다.제주도는 앞으로 스마트 관광섬이 구축되는 5년간 중국인 관광객들의 소비가 2배 이상 늘어날 것(2015년 6,600억 원→2020년 1조3,910억 원)으로 기대하고 있다. 제주도민의 실질소득은 총 3,560억 원 증대될 것이라는 예상이다.황창규 KT 회장은 “스마트 관광섬이 구축되면 외국인들이 한국을 찾았을 때 느끼는 언어 장벽, 정보 부족 등을 해결돼 더욱 많은 외국인 관광객이 제주도를 찾을 것으로 예상한다”며, “KT는 제주도가 한국 여행의 1번지에서 ‘한국 여행의 보물섬’으로 거듭날 수 있도록 그룹 차원의 지원을 아끼지 않겠다”고 말했다.원희룡 제주도 도지사는 “KT와 유기적인 협력을 바탕으로 자연, 문화, 사람이 공존하는 스마트 아일랜드를 조성하고 최신 ICT(정보통신기술) 활용 다양한 맞춤형 서비스를 제공해 나갈 계획이다”고 밝혔다. 이덕웅 기자 leedw@itdaily.kr 다른기사 보기 저작권자 © 아이티데일리 무단전재 및 재배포 금지 IT DAILY 추천뉴스 [커버스토리] 클라우드 운영·관리 혁신 ‘열쇠’로 부상한 클라우드 관리 플랫폼 [기획특집] ‘창고’와 ‘호수’를 넘어서는 데이터 레이크하우스 [시장동향] AI 등 다양한 기술 적용해 스마트하게 진화하는 RPA 솔루션 [기획특집] 보안의 기본, 안티 바이러스 [초점] 상반기 가상자산 노린 랜섬웨어 기승…하반기엔 ‘관광산업’ 주의보 [시장동향] ‘차세대 방화벽’은 아직도 진화 중 [기획특집] CNAPP로 클라우드 보안 ‘모두’ 챙긴다 [이슈조명] 클라우드 저변 확대의 첨병, ‘클라우드 서비스 이용지원 사업’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 AI 화물운송 플랫폼 스타트업 센디, 간편식 전문 플랫폼 윙잇에 콜드체인 운송서비스 제공 모션투에이아이, 물류센터 DX 솔루션 ‘모션인사이트’ 출시 아크릴, 전립선 증식증 솔루션 및 신규 감염병 대응시스템 선봬 알서포트, ‘리모트미팅’에 3D 아바타 및 리액션 이모티콘 적용 SAP, 포스트 코로나 시대를 위한 새로운 고객경험 전략 강조 티맥스티베로 “데이터 관리자, 클라우드 환경과 상용 DBMS 선호한다” 인기뉴스 1 [글로벌] 목성, 27일 166년 중 가장 크고 밝게 빛난다…사진작가들에 희소식 2 [전문가 강좌] AI 모델링에서의 하이퍼매개변수 최적화 3 [좌담회] “CSAP 등급제 개편, 민간 클라우드 활성화에 역점 둬야” 4 [초점] 주목받는 ‘한국PMO협회’ 5 [글로벌] 구글 신제품 스마트폰 픽셀7·픽셀워치 발표 이벤트 10월 7일 개최 6 [글로벌] 아이폰15 정보 벌써 나돈다…“‘울트라’ 모델, 카메라 대폭 강화” 7 주호시스템즈, KT클라우드 마켓에 통합로그솔루션 ‘로그세이버’ 입점 8 스프링클라우드-만나씨이에이, 자율주행 결합한 스마트팜 서비스 개발 위해 ‘맞손’ 9 [글로벌] 옵티머스 프라임 등장하나…테슬라 AI데이 선보일 ‘인간형 로봇’ 주목 10 솔트웨어, IP 투자 플랫폼 운영사 ‘아이피샵’ AWS 클라우드 도입 지원 기획특집 [LCNC①] 만성적 개발자 부족…로우코드‧노코드로 해결한다 [시장동향] 다양한 기기 지원하면서 꾸준히 성장하는 ‘UI/UX’ 시장 [CSAP 논의점 ③] 유명무실한 민간 클라우드 우선 활용 정책, 신규 시스템 기준 필요 [CSAP 논의점 ②] ‘망’ 재정의 요구…‘중’ 등급 확대해야 SaaS 기업, CSP 성장 가능 최신뉴스 AI 화물운송 플랫폼 스타트업 센디, 간편식 전문 플랫폼 윙잇에 콜드체인 운송서비스 제공 안랩, 사내 ESG 환경 특강 ‘기후위기 시대의 한국경제와 한국기업’ 개최 [인사] 컴볼트, 아세안 및 한국·일본·홍콩 담당 프리세일즈 책임자에 다니엘 탠 선임 씽크포비엘, NIPA ‘AI 융합 에너지 효율화’ 1년차 사업 막바지 ‘담금질’ 곰앤컴퍼니, ‘곰믹스’ iOS 버전 공식 출시 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 서비스 전체보기 매체정보 서울특별시 금천구 가산디지털1로 181 (가산 더블유센터) 1713~1715호 대표전화 : 02-2039-6160 팩스 : 02-2039-6163 청소년보호책임자 : 김선오 법인명 : (주)아이티엠지 제호 : 아이티데일리 등록번호 : 서울 아 00418 등록일 : 2007-08 발행일 : 발행인 : 김용석 편집인 : 김선오 아이티데일리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 아이티데일리. All rights reserved. mail to info@itdaily.kr 위로 전체메뉴 전체기사 뉴스 전체 정책·산업 솔루션 클라우드 보안 하드웨어 글로벌 모바일 컨슈머 기획특집 전체 기획특집 취재.txt 특별부록 인터뷰·사람들 전체 인터뷰 사람들 기업 분석 솔루션 리뷰·사례 기고·강좌 생활경제 전체 라이프 헬스 경제 뷰티 교육 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>새전북신문 최종편집: 2022년10월10일 16:32 회원가입 Log in 최종편집: 2022년10월10일 16:32 About Contact 회원가입 Log in Home TOP NEWS 주요기사 전체기사 정치 사회 문화 경제 기획 독자투고 지면보기 지역뉴스 전주 익산 군산 정읍 김제 남원 완주 고창 부안 임실 순창 무주 진안 장수 Home TOP NEWS 주요기사 전체기사 정치 사회 문화 경제 기획 교육 독자투고 지역뉴스 전주 익산 군산 정읍 김제 남원 완주 고창 부안 임실 순창 무주 진안 장수 지면보기(PDF) Trending Now: 순창경찰서, 외국 선수단 교통안전 서비스 제공 호평 [부고] 이용수(전북일보 편집부장)씨 부친상 전북 철인3종 사상 첫 전국체전 종합우승 농민은 쌀값 폭락 자제값 인상에 한숨, 농협은 성과급 잔치 대중제골프장 입장료 크게 올라...규제 시급 함께 한 마지막 생일…무주 주택서 일가족 참변 국화꽃으로 가득한 치즈 축제장 "현대중, 군산 특수목적선 투자해주오" 2022년 2021년 2020년 2019년 2018년 2017년 2016년 2015년 2014년 2013년 2012년 2011년 2010년 2009년 2008년 2007년 2006년 2005년 2004년 2003년 2002년 2001년 2000년 제주도 관광협회, 제주여행 전문마켓 탐나오 사이트 활짝 기사 작성:  	김종일 기자 - 2016.02.15 17:49 제주특별자치도가 지원하는 도관광협회가 운영해 믿을 수 있는 제주여행 전문마켓 ‘탐나오’가 사이트 오픈을 기념하는 이벤트를 진행중이다고 15일 밝혔다. ‘탐나오’는 제주로 향하는 실시간 항공권부터 숙소, 렌터카, 관광지와 레저시설 및 맛집 쿠폰까지 한 번에 구매할 수 있는 제주만의 전문 여행 쇼핑몰이다. 할인 특가 항공권과 카텔, 에어텔 등 다양한 할인 패키지상품을 제공해 누구나 쉽고 저렴하게 제주여행을 즐길 수 있다. 제주도를 여행 중일 때에도 탐나오 어플을 다운로드 받으면 가까운 거리의 숙소와 관광지·레저시설 및 음식점 등을 확인할 수 있으며 당일 숙박 이용 시에도 특가 할인이 가능하다. 봄 제주여행을 계획하는 여행객들을 위해 렌터카와 숙박업종 등에서 다양한 특가 프로모션도 제공하고 있다. ‘탐나오’ 사이트에서 오픈을 기념해 ‘회원가입 이벤트’와 ‘첫 구매 이벤트’를 진행한다. 이 기간 동안 회원으로 가입한 고객에게 추첨을 통해 제주 특산품과 문화상품권을 제공하며 탐나오 사이트에서 첫 구매를 한 고객에게는 선착순으로 다양한 경품을 제공한다. 자세한 내용은 탐나오 홈페이지(www.tamnao.com) 및 모바일 어플에서 확인이 가능하다. /김종일 기자 kji7219@sjbnews.com 새전북 만평 광고 많이 보는 기사 1 [부고] 이용수(전북일보 편집부장)씨 부친상 2 전북 철인3종 사상 첫 전국체전 종합우승 3 농민은 쌀값 폭락 자제값 인상에 한숨, 농협은 성과급 잔치 4 대중제골프장 입장료 크게 올라...규제 시급 5 함께 한 마지막 생일…무주 주택서 일가족 참변 6 국화꽃으로 가득한 치즈 축제장 7 "현대중, 군산 특수목적선 투자해주오" 8 신영대 의원 “새만금방조제내측해상풍력사업은 문재인 정부와 전혀 무관한.. 9 한국농수산식품유통공사, 농수산식품 수출 확대 총력 지원체계 가동 10 5~29인 제조업체 75.5% 8시간 추가연장근로제 일몰 도래 시 대책 없어 행사 국화꽃으로 가득한 치즈 축제장 이희철 국감 앞두고 성과물 전시하는 농진청 직원들 이희철 떨어진 기온으로 두꺼운 옷 입은 시민들 이희철 알림 [부고] 이용수(전북일보 편집부장)씨 부친상 [부음] 정국진 · 엄정현 가정 3자녀 연년생 합동 생일잔치 [알림] 문동혁군♡브라운 킴벌린양 [결혼] 백찬빈군♡최지나양 [결혼] 결혼 [결혼] 전북 전주시 덕진구 백제대로 728 새전북신문 대표전화: 063-230-5700 팩스: 063-231-8327 청소년보호책임자: 권재현 고충처리인: 이종근 [고충처리] 명칭: 새전북신문 | 제호: 새전북신문 / SJBnews 종별: 일반일간신문 / 인터넷신문 | 간별: 일간 등록번호: 전라북도, 가00004 / 전라북도, 아00058 등록일: 2000.10.23 / 2012.03.06 발행인: 박명규 | 편집인: 박명규 새전북신문 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2019새전북신문 All rights reserved . Mail to APSUN@sjbnews.com | http://sjbnews.com ×</t>
+  </si>
+  <si>
+    <t>제주도-KT 스마트 관광섬 구축 협력 &lt; 경제종합 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 01:47 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 제주도-KT 스마트 관광섬 구축 협력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 경제종합 제주도-KT 스마트 관광섬 구축 협력 기자명 고 미 기자 입력 2016.02.14 16:05 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 12일 업무협약 공동사업 발굴 집중키로제주특별자치와 ㈜KT(회장 황창규)가 제주 스마트 관광섬 구축을 위해 손을 잡았다.제주도와 KT는 지난 12일 제주지역 무료 와이파이(WiFi) 인프라 확대와 ICT 융합산업 미래 발전을 위한 업무 협약을 체결했다. 이번 협약으로 KT그룹은 총 225억원 규모를 투자해 스마트 관광섬 인프라를 구축을 추진한다.5년간 143억 원을 투자해 기가 와이파이, 기가 인터넷, 기가 비콘 등 기가 인프라 기반의 네트워크 서비스를 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있도록 기가 와이파이 네트워크 1100여 곳을 구축한다. BC카드와 KTH 등 그룹사도 82억 원을 투자하기로 약정했다.이들 사업은 외국인 관광코스, 바오젠거리, 유동 인구가 많은 지역(테마거리) 등에 집중적으로 추진되는 등 관광 만족도 제고에 무게를 싣는다. 또 도내 5400여 개소에 기반시설을 확대 구축하고 향후 관광정보, 위치기반 서비스, 결재서비스(Tax ReFund) 등 공동사업 발굴에 역량을 강화하게 된다. 고 미 기자 popmee@hanmail.net 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 오늘의운세 10월11일(음력9월16일) 내 영혼이 따뜻해지는 날 장 발장 이야기 진단/포괄적 권한이양 전환 현실성 있나 예술인들 자발적 참여로 빈 땅에 '예술마을' 조성 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 제61회 탐라문화제 9일 일부 일정 10일로 연기 2 오늘의운세 10월11일(음력9월16일) 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [우리회사 창립기념일] 10월 10~16일 5 제주문학학교, 문태준 시인 초청 북토크 6 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 7 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 8 제23회 제주여성영화제 요망진작품상 '나들이' 선정 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>자유투어, '제주도 버스관광' 상품 선보여 - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 12:03 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 자유투어, '제주도 버스관광' 상품 선보여 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 생활경제 여행레저 중간톱 자유투어, '제주도 버스관광' 상품 선보여 강민수 기자 승인 2016.02.13 17:48 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × [이뉴스투데이 강민수 기자] ㈜자유투어는 푸른 하늘이 아름다운 제주도 패키지 상품을 선보여 주목을 끌고 있다.제주도는 자연·문화 등 다양한 관광자원으로 인해 해외 관광객은 물론 국내 관광객들도 많이 찾는 관광명소 중 하나다.이번 패키지는 버스를 타고 제주도의 숨은 곳곳을 여행하는 상품으로써 가족·연인·친구 등으로 하여 눈 여겨 볼 만 하다.우선 제주도 서쪽에 자리잡고 있는 아름다운 수월봉 산책을 비롯해 파란하늘 아래 커다란 풍차가 바다와 어우러져 풍광이 일품인 신창해안도로(올레12코스), 바다와 이어지는 아름다운 폭포 정방폭포, 서복전시관, 관광농원 등을 볼 수 있다. 아울러 가장 아름다운 숲길 삼나무숲길과 한울랜드에서 국내 최초 연박물관·화석박물관, 말의 고장 제주에서 꼭 즐겨봐야 할 필수코스인 승마체험, 도심의 피곤함을 잠시 잊을 수 있는 향기로운 휴식공간 커피족욕체험 등을 즐길 수 있다.이밖에도 드라마 촬영지로 유명한 섭지코지, 해안도로 일주와 싱싱한 제주해산물을 맛 볼수 있는 용담 해녀촌, 농수산물 직매장 등을 관광한다.보다 자세한 내용과 일정은 자유투어 홈페이지에서 확인할 수 있으며, 2박3일 일정으로 11만9000원부터·아시아나 항공을 이용하게 된다. Tag #N 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 강민수 기자 sinclair83@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 의왕 청계동평생학습센터, 평생대학 수강생 모집 의왕 청계동평생학습센터, 평생대학 수강생 모집 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 충남도, 외국인 대상 지역관광상품 개발 ‘박차’ 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1양평군, 제1회 양평관광페스타 걷기와 여행 포럼 개최 2부동산R114, AI·디지털 기반 중개업무 경쟁력 강화 3의왕 청계동평생학습센터, 평생대학 수강생 모집 4광주본플란트치과·광주시장애인체육회, 광주시에 성금 및 현물 기탁 5카카페이손보, 첫 상품 ‘금융안심보험’…카톡으로 보험금 청구 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>KT, 제주도를 스마트 관광섬으로 바꾼다 : 스포츠동아 본문바로가기 로그인회원가입 지면보기 즐겨찾기 추가 전체메뉴보기 실시간 뉴스 연예 스포츠 포토 아이돌픽 트롯픽 엠엘비파크 인스타그램페이스북트위터검색 전체 검색 영역 전체 검색어 입력 검색 닫기 메뉴닫기 뉴스 실시간뉴스 연예 스포츠 포토 아이돌뉴스 인터뷰 기자스페셜 카툰 아이돌픽 동아닷컴 MLBPARK 비즈N VODA 보스 오늘의 운세 &lt;운수 좋은 날&gt;송혜교, 이제 나이테 느껴지는 성숙미스타들의 핫한 순간들 [화보] KT, 제주도를 스마트 관광섬으로 바꾼다입력 2016-02-12 16:09:00 카카오톡 페이스북 공유하기 프린트글씨작게글씨크게 공유하기 닫기 KT가 제주도에 225억원을 투자해 스마트 관광 인프라를 구축한다. KT는 제주특별자치도와 이러한 내용을 골자로 한 ‘제주 스마트 관광섬 구축을 위한 업무협약’을 체결했다고 12일 밝혔다. 이번 협약에 따라 KT그룹은 총 225억원 규모를 투자해 스마트 관광섬 인프라를 구축하고, 제주 지역의 외국인 관광객 증가와 주민의 실질 소득 증대에 기여할 계획이다. KT는 우선 5년간 143억원을 투자해 ‘기가 와이파이’와 ‘기가 인터넷’, ‘기가 비콘’ 등 기가 인프라 기반의 네트워크 서비스를 제공한다. 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있는 기가 와이파이 네트워크 1100여 곳이 구축된다. BC카드와 KTH 등 그룹사도 82억원을 투자하는 등 전 KT그룹 차원에서 힘을 모으게 된다. 또 KT는 그룹사인 BC카드, KTH, KT IS와 공동으로 지리정보시스템(GIS) 기반의 스마트관광 플랫폼을 구축한다. 관광객의 빅데이터를 활용한 소비패턴 분석 등으로 관광정책 수립에 도움을 주고, 외국인 관광객들이 보다 쉽게 내국세 환급 등 혜택을 누리는 데에 기여할 것으로 예상된다. 스마트 관광섬이 구축되면 중국인 개별 관광객이 증가해 관광산업 발전에 큰 도움이 될 것으로 기대된다. 지금까지 제주도를 방문한 중국 관광객은 대부분 단체관광객이었다. 또 지역 내 중국 자본이 조성한 상점, 숙소 등에서 소비가 많았다. 때문에 유커 증가가 지역주민 소득 확대로 이어지지 못하는 어려움이 있었다. 제주도는 스마트 관광섬이 구축되는 5년간 중국인 관광객들의 소비가 2배 이상 늘어날 것(2015년 6600억원→2020년 1조3910억원)으로 기대하고 있다. 또 도민의 실질소득이 총 3560억원 증대될 것이라는 예상도 내놓았다. 황창규 KT 회장은 “스마트 관광섬이 구축되면 외국인들이 한국을 찾았을 때 느끼는 언어 장벽, 정보 부족 등이 해결돼 더욱 많은 외국인 관광객이 제주도를 찾을 것으로 예상한다”며 “KT는 제주도가 한국 여행의 ‘1번지’에서 한국 여행의 ‘보물섬’으로 거듭날 수 있도록 그룹 차원의 지원을 아끼지 않겠다”고 말했다. 제주도 원희룡 도지사는 “KT와 유기적인 협력을 바탕으로 자연, 문화, 사람이 공존하는 스마트 아일랜드를 조성하고 최신 정보통신기술(ICT) 활용한 다양한 맞춤형 서비스를 제공해 나갈 계획이다”고 말했다. 김명근 기자 dionys@donga.com 기자의 다른기사 더보기 베스트 클릭1.홍진영, 더욱 앙상해진 몸매 [DA★]2.‘♥김준호’ 김지민 “쌍둥이 임신, 혼인 신고설 난리가 났다” (미선임파서블)3.조형기 미국에 있었다? 뜻밖의 근황설 [종합]4.최불암 근황 공개, ‘회장님네 사람들’ 게스트 출격 [공식]5.하니, 10세 연상 양재웅♥에 가스라이팅? “심신미약자 아냐” (레오제이)6.“집도 사주고파” 의뢰인 남친 미모 난리→서장훈도 인정 (물어보살)7.19세 김가연 “4살딸 양육비 달라”…전 남편 충격+분노유발 (고딩엄빠2)8.김혜자 눈물→최불암 근황 공개, ‘회장님네’ 오늘 첫방 [DA:투데이]9.80억 매출 현영, 맘카페들 난리 날 일상 (호적메이트)10.성유리 “여긴 KBS입니다” 화들짝→김창옥이 뭐랬길래? 뉴스스탠드 회사소개 지면광고문의 구독신청 인터넷광고문의ㆍ사업제휴 청소년보호정책(책임자: 구민회) 이용약관 개인정보처리방침 사이트맵 스포츠동아의 모든 콘텐츠를 커뮤니티, 카페, 블로그 등에서 무단 사용하는 것은 저작권법에 저촉되며, 법적 제재를 받을 수 있습니다. Copyright by sports.donga.com Email</t>
+  </si>
+  <si>
+    <t>KT, 제주도와 손잡고 ‘스마트 관광섬’ 만든다 한국금융신문 페이스북 네이버포스트 letter 구독신청 로그인 회원가입 My스크랩 지면신문 메뉴 전체증권시황·종목실적속보금융투자정책·일반채권·외환산업기업·재계자동차통신·인터넷전자게임유통·부동산유통식음료헬스케어패션뷰티건설부동산부동산신탁금융금융지주은행금융공기업핀테크보험생명보험손해보험GA2금융카드캐피탈저축은행대부업신용정보경제·시사거시경제정책·행정정치·사회경제동향과학경제경제일반연예·스포츠오피니언CEO초대석인물포커스FT칼럼김상철의 정책해설김우성의 베트남인사이트금융인라운지기자수첩데스크칼럼FT도서재테크웰스매니지먼트투자플랜&amp;은퇴부동산스페셜리포트 검색 검색 닫기 증권 시황·종목실적속보금융투자정책·일반채권·외환 산업 기업·재계자동차통신·인터넷전자게임 유통·부동산 유통식음료헬스케어패션뷰티건설부동산부동산신탁 금융 금융지주은행금융공기업핀테크 보험 생명보험손해보험GA 2금융 카드캐피탈저축은행대부업신용정보 경제·시사 거시경제정책·행정정치·사회경제동향과학경제경제일반연예·스포츠 오피니언 CEO초대석인물포커스FT칼럼김상철의 정책해설김우성의 베트남인사이트금융인라운지기자수첩데스크칼럼FT도서 재테크 웰스매니지먼트투자플랜&amp;은퇴부동산스페셜리포트 닫기 산업 기업·재계 KT, 제주도와 손잡고 ‘스마트 관광섬’ 만든다 오아름 webmaster@ 기사입력 : 2016-02-12 11:09 프린트 글자크기 작게 글자크기 크게 스크랩 페이스북 트위터 구글플러스 카카오스토리 페이스북 트위터 구글플러스 카카오스토리 [한국금융신문 오아름 기자] 대한민국 관광 1번지, 제주도가 머지 않아 최고 수준의 기가 인프라를 갖춘 ‘스마트 관광섬’으로 탈바꿈한다. 이에 따라 제주도를 찾는 외국인 관광객이 증가하는 것은 물론 제주 지역경제도 활성화될 것으로 예상된다. KT와 제주특별자치도는 ‘제주 스마트 관광섬 구축을 위한 업무협약’을 체결했다고 12일 밝혔다. 그 동안 KT는 제주도에 기가 IoT 및 인프라 구축 노하우를 바탕으로 미래관광 사업모델을 제시해 왔다. 이번 협약에 따라 KT그룹은 총 225억원 규모를 투자해 스마트 관광섬 인프라를 구축하고, 제주 지역의 외국인 관광객 증가와 주민의 실질적 소득 증대에 기여할 계획이다. KT는 5년간 143억원을 투자해 ‘기가 와이파이’, ‘기가 인터넷’, ‘기가 비콘’ 등 기가 인프라 기반의 네트워크 서비스를 제공한다. 이로써 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있는 기가 와이파이 네트워크 1,100여곳이 구축된다. BC카드와 KTH 등 그룹사도 82억원을 투자하는 등 전 KT그룹 차원에서 힘을 모으게 된다. 또한 KT는 그룹사인 BC카드, KTH, KT IS와 공동으로 지리정보시스템(GIS) 기반의 스마트관광 플랫폼을 구축한다. 스마트관광 플랫폼은 관광객의 빅데이터를 활용한 소비패턴 분석 등으로 관광정책 수립에 도움을 주고, 외국인 관광객들이 보다 쉽게 내국세 환급(Tax Refund) 등 혜택을 누리는 데 기여할 것으로 예상된다. 원희룡닫기원희룡기사 모아보기 도지사는 취임 이후 미래성장을 위해 무료 와이파이 보급, 스마트관광 산업 육성 등으로 중국인 관광객(유커) 유치 확대를 약속해 왔다. 이번 업무협약은 그 동안 제주도가 추진하던 미래관광 사업의 일환으로 이뤄졌다. 제주도는 중국인이 많이 방문하는 데도 불구하고 대부분 단체관광객인데다 지역내 중국 자본이 조성한 상점, 숙소 등에서 소비가 많았다. 이에 따라 유커 증가가 지역주민 소득 확대로 이어지지 못하는 어려움을 겪고 있었다. 하지만 스마트관광섬이 구축되면 중국인 개별 관광객이 증가해 관광산업 발전에 상당한 도움이 될 것으로 전망된다.. 제주도는 스마트 관광섬이 구축되는 5년간 중국인 관광객들의 소비가 2배 이상 늘어날 것(2015년 6,600억원→2020년 1조3,910억원)으로 기대하고 있다. 제주도민의 실질소득은 총 3,560억원 증대될 것이라는 예상을 내놓았다. 황창규닫기황창규기사 모아보기 KT 회장은 “스마트 관광섬이 구축되면 외국인들이 한국을 찾았을 때 느끼는 언어 장벽, 정보 부족 등을 해결돼 더욱 많은 외국인 관광객이 제주도를 찾을 것으로 예상한다”며, “KT는 제주도가 한국 여행의 1번지에서 ‘한국 여행의 보물섬’으로 거듭날 수 있도록 그룹 차원의 지원을 아끼지 않겠다”고 말했다.. 이에 제주도 원희룡 도지사는 “KT와 유기적인 협력을 바탕으로 자연, 문화, 사람이 공존하는 스마트 아일랜드를 조성하고 최신 ICT(정보통신기술) 활용 다양한 맞춤형 서비스를 제공해 나갈 계획이다”고 밝혔다.오아름 기자 ajtwls0707@fntimes.com 데일리 금융경제뉴스 FNTIMES - 저작권법에 의거 상업적 목적의 무단 전재, 복사, 배포 금지Copyright ⓒ 한국금융신문 &amp; FNTIMES.com Please activate JavaScript for write a comment in LiveRe. 오아름 의 기사 더보기 페이스북 트위터 구글플러스 카카오스토리 산업 다른 기사 세가. 페르소나3·4 내년 1월 19일 전 플랫폼 동시 발매 한국조선해양, 연료전지 대형선박 실증 나선다 LS그룹, 걸프협력회의(GCC) 대사 초청해 사업 협력 논의 산업 많이 본 기사 1.‘세단 제왕’의 귀환…풀체인지 그랜저 11월 나온다2.최재원이 미국으로 날아간 까닭은?3.정의선·조현범, 불편한 과거 잊고 다시 손 잡았나?4.LX인터 윤춘성 ‘영업익 1兆 클럽’ 입성한다5.삼성전자, 3Q 영업익 10조8천 억원 ‘어닝쇼크’…업황 악화로 예상보다 낮아 [2022 3Q 실적]6.LS 구자은號 ‘배·전·반(배터리·전기차·반도체)’ 적중…역대급 실적 보이나7.BMW, 벤츠 역전...1~9월 수입차 판매량8.개미들 골머리 앓게 하는 율촌화학·SK케미칼, 오늘(11일) 행보 주목9.LG엔솔, 3분기 영업익 5219억...전망치 30% 상회 '어닝서프라이즈'10.기아, 고성능 전기차 'EV6 GT' 다음달 4일 출시 추천기사 ‘20주년’ ETF 경쟁 치열… 200조 시장 누가 리드할까? [기자수첩] IPO 한파 때 드러나는 증권사 ‘진짜’ 실력 [이사철 깡통전세 AtoZ] 깡통전세 피해 입은 실제 사례 살펴보니… 오늘의 뉴스 차기 수협은행장 사실상 3파전...이번에도 정부 VS 수협 줄다리기? 차기 Sh수협은행장 인선이 사실상 3파전으로 치러질 전망이다. 공모 지원서 접수가 마감된 가운데 연임에 도전하는 김진균 현 수협은행장과 수협중앙회 소속 임원인 강신숙 부대표, 유일한 외부 출신 인사인 최기의 KS신용정보 대표이사 부회장이 유력 후보로 떠오르고 있다. 다만 중앙회에서 내부출신 인사를 원하고, 일부... ‘20주년’ ETF 경쟁 치열… 200조 시장 누가 리드할까? 정의선·조현범, 불편한 과거 잊고 다시 손 잡았나? 최재원이 미국으로 날아간 까닭은? LS 구자은號 ‘배·전·반(배터리·전기차·반도체)’ 적중…역대급 실적 보이나 이복현 금감원장 국감 데뷔전…횡령사태·태양광 대출 등 쟁점 [2022 금융권 국감] 대부업계 숙원 ‘명칭 변경’ 언제쯤 종합 BEST CLICK 1 차기 수협은행장 사실상 3파전...이번에도 정부 VS 수협 줄다리기? 2 이복현 금감원장 국감 데뷔전…횡령사태·태양광 대출 등 쟁점 [2022 금융권 국감] 3 개미들 골머리 앓게 하는 율촌화학·SK케미칼, 오늘(11일) 행보 주목 4 KB국민카드, 통합 ‘KB페이’ 구축 1단계 완료…연내 ‘리브메이트’도 통합 5 증권가 "10월 금통위, '빅스텝' 전망…매파적 포워드 가이던스 예상" 6 아직 시중銀보다 높은 저축은행 예금상품들 7 [10월2주] 우리동네 칭찬공무원 8 반도체주 ‘또’ 폭락… 3대 지수, 4거래일 연속 하락 [뉴욕 증시] 9 보험사 88%·은행 35% 정보보안·개인정보 보호 미인증 [2022 금융권 국감] 10 이복현 금감원장 “금융시장 질서교란 불법·불공정 거래 발본색원” [2022 금융권 국감] Auto&amp;Tech 더보기 쌍용 렉스턴 스포츠, 영국 카바이어 선정 '최고의 픽업' 기아, 고성능 전기차 'EV6 GT' 다음달 4일 출시 제네시스 G90, IDEA 디자인상 은상 수상 제네시스, EV콘셉트 '엑스 스피디움 쿠페' 실내 디자인 공개 현대차 스타리아 2023 연식변경 출시...횡풍안정제어 신기술 탑재 [기아 신형 셀토스 타보니] 첨단 기능에 세련된 디자인…2000만원대 소형SUV 평정 FT카드뉴스 더보기 인사동정 기관동정 더보기 [부고] 성인모(한국금융투자협회 수석전무)씨 부친상 [부고] 이정렬(반도건설 대표)씨 모친상 금융위 신임 금융안정지원단장에 김기한 전 대통령실 행정관 정완규 신임 여신금융협회장 "업계 영업환경 규제 개선 위해 목소리 낼 것" (종합) 정완규 제13대 여신금융협회장 당선 (상보) 더보기 [10월 2주 기획재정부 및 한은·금융위·금감원 일정] [10월 1주 기획재정부 및 한은·금융위·금감원 일정] 이창용 한국은행 총재, BIS 총재회의 참석차 9일 출국 한국거래소, 유럽 최대 파생상품거래소 유렉스와 협력 강화 김태현 신임 국민연금 이사장 공식 일정 시작…첫 간부회의 주재 기관별사외이사 금융공기업금융지주은행증권보험저축은행카드·캐피탈자산운용사재계 #사외이사 더보기 신한캐피탈, 첫 여성 사외이사로 ‘회계전문가’ 이광숙 교수 영입 AK홀딩스, 첫 여성 사외이사로 조소영 부산대 교수 선임 현대카드, 사외이사 후보에 푸본금융측 인사 추천 FT도서 더보기 추천 서평 신간 [신간]신의 직장 CEO 일지/ 윤대희 “공공기관은 神의 직장이 아니라 국민에게 信義를 지키는 기관이어야 한다”신용보증기금에서 퇴임한 윤대희 전 이사장이 이 같은 생각을 담아 『신의 직장 CEO 일지』를 출간했다. 공공기관장으로서의 경험담과 공공 리더십을 들려준다. 금융 공공기관은 취업을 준비하는 청년들에게, 안정적인 고용 및 근무 요건, 높은 수준의 급여와 복지제도로 최고의 일자리인 ‘신神의 직장’으로서 선망되는 수많은 공기업 가운데에서도 가장 선호된다고 알려져 있다. 『신의 직장 CEO 일지』는 그 금융 공공기관에 속하는 ‘신용보증기금’을 2018년 6월부터 2022년 8월까지 이사장으로서 경영한 작가의 생생하고 꼼꼼한 기록이다.윤대희 전 이사장은 [신간] 여행에서 만난 경영지혜-야무진 강소기업으로 가는 길 “어려운 중소기업을 맡아 강소기업으로 키워 내려면 어떻게 해야 하나?”“야무진 강소기업으로 가려면 여행을 떠나라.”여행지에서 얻은 통찰을 경영에 접목시켜 위기에 처한 기업을 업계에서 인정받는 강소기업으로 변모시킨 CEO가 경영노하우를 담아 책으로 출간했다. KS신용정보(주) 최기의 대표이사가 최근 『여행에서 만난 경영지혜-야무진 강소기업으로 가는 길』을 신간으로 내놓아 화제를 모으고 있다. 최 대표는 은행원으로 시작하여 KB국민카드 CEO를 거쳐 신문사와 상장 핀테크 기업의 경영에도 참여했고, 지금은 KS신용정보(주)의 대표이사를 맡고 있다. 파미르와 파타고니아 등 오지 방문으로 틈틈이 삶의 지평을 넓히며 지구촌 후회스런 성급한 말보다 차라리 늦게 말하라! 모든 처세는 말로 이루어진다. 말 한 마디에 천 냥 빚을 갚는가 하면, 말실수 한 번으로 평생 쌓아온 명예를 물거품으로 만들기도 한다. 그럼 말 잘하는 비법이 따로 있을까? 비법은 없다. 요즘같이 이해가 첨예한 상황에서는 더욱 어렵다. 있다면 말실수가 왜 나오겠는가! ‘한번 뱉은 말은 주워 담기 어려우니 조심하라’는 충고는 말이 얼마나 어려운지를 대변한다. 그런데 이처럼 어려운 말을 센스있게 하는 비법이 공개됐다. 성급히 말하고 후회하느니 한 템포 늦춰 말하는 사람이 이긴다는 &lt;한템포 늦게 말하기&gt; 경험서를 소개한다. 산업교육과 자기계발 분야의 고수가 전하는 또 하나의 메시지 이 책의 저자인 조관일 박사는 다 [서평] 대체투자자산의 이해 대체투자란 무엇인가? 이제는 보편화 된 대체투자자산의 정의는 한마디로 정의되지 않는다. 일반적으로 이해되는 전통투자 즉, 주식이나 채권 그리고 그와 연계된 상품들의 투자에 대응하는 또 다른 자산에의 투자로 이해되고 있다. 대체투자가 본격화 한 것은 금융위기 이후다. 2007-2008년 전 세계를 강타한 금융위기는 미국발 서브프라임 모기지 부실이 미국의 대형 투자은행인 베어스턴스, 리만부라더스, 메릴린치 등을 파산시키며 발생했다. 당시의 금융시스템이 제도적 안정 속에서 가장 과학적인 포트폴리오 구성을 가능케 할 것이라는 기대가 무참히 무산된 사건이다. 미국 한 국가에서 발생한 위험이 전 세계시장을 감염시킬 수 있다는 [신간]신의 직장 CEO 일지/ 윤대희 “공공기관은 神의 직장이 아니라 국민에게 信義를 지키는 기관이어야 한다”신용보증기금에서 퇴임한 윤대희 전 이사장이 이 같은 생각을 담아 『신의 직장 CEO 일지』를 출간했다. 공공기관장으로서의 경험담과 공공 리더십을 들려준다. 금융 공공기관은 취업을 준비하는 청년들에게, 안정적인 고용 및 근무 요건, 높은 수준의 급여와 복지제도로 최고의 일자리인 ‘신神의 직장’으로서 선망되는 수많은 공기업 가운데에서도 가장 선호된다고 알려져 있다. 『신의 직장 CEO 일지』는 그 금융 공공기관에 속하는 ‘신용보증기금’을 2018년 6월부터 2022년 8월까지 이사장으로서 경영한 작가의 생생하고 꼼꼼한 기록이다.윤대희 전 이사장은 [신간] 여행에서 만난 경영지혜-야무진 강소기업으로 가는 길 “어려운 중소기업을 맡아 강소기업으로 키워 내려면 어떻게 해야 하나?”“야무진 강소기업으로 가려면 여행을 떠나라.”여행지에서 얻은 통찰을 경영에 접목시켜 위기에 처한 기업을 업계에서 인정받는 강소기업으로 변모시킨 CEO가 경영노하우를 담아 책으로 출간했다. KS신용정보(주) 최기의 대표이사가 최근 『여행에서 만난 경영지혜-야무진 강소기업으로 가는 길』을 신간으로 내놓아 화제를 모으고 있다. 최 대표는 은행원으로 시작하여 KB국민카드 CEO를 거쳐 신문사와 상장 핀테크 기업의 경영에도 참여했고, 지금은 KS신용정보(주)의 대표이사를 맡고 있다. 파미르와 파타고니아 등 오지 방문으로 틈틈이 삶의 지평을 넓히며 지구촌 애드버토리얼 현대차, 자율주행 레벨4 로보셔틀 판교 제로시티 달린다 현대차 아이오닉5, 워즈오토 '10대 엔진' 선정 예탁원, KSD나눔재단으로 나눔 실천…금융교육·장학사업 등 박차 메리츠증권, 韓·美 국채 10년물 ETN 8종 전진 배치 한국예탁결제원, 부산 지역공헌 활동 박차…'금융·증권 오픈캠퍼스' 운영 청년취업 지원 등 회사소개 광고안내 구독신청 1:1독자문의 제휴문의 채용공고 개인정보취급방침 청소년보호정책 고충처리제도 이메일무단수집거부 발행소(주소) : 서울시 중구 다동길 46 다동빌딩 6층 한국금융신문사 ㅣ 사업자번호 : 202-81-39551 ㅣ 제호: 한국금융신문 등록번호: 서울, 아03960 ㅣ 등록일자: 1992년 1월 29일 ㅣ 발행.편집인 : 김봉국 ㅣ 발행일자: 1992년 3월2일 ㅣ 대표번호 : 02)773-6300 FNTIMES.COM의 모든 콘텐츠 및 기사는 저작권법의 보호를 받는 바, 무단 전재, 복사, 배포 등을 금합니다. Copyrightⓒ 한국금융신문 All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도-KT '스마트 관광 섬' 구축 협약 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 하단 메뉴 바로가기 국가기간뉴스통신사 연합뉴스 배너 검색 영역 뉴스, 포토, 영상, 그래픽을 검색하실 수 있습니다. GO 비주얼 뉴스홈 영상 영상홈 영상뉴스 사건재구성 한반도N 많이본영상 날짜별영상 포토 포토홈 정치 북한 경제 산업 사회 전국 세계 문화 연예 스포츠 모멘트 화보 #D 그래픽 검색 열기 검색 닫기 포토홈 제주도-KT '스마트 관광 섬' 구축 협약 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 김호천 기자 기자 페이지 (제주=연합뉴스) 김호천 기자 = 원희룡 제주도지사(오른쪽)와 황창규 KT 회장이 12일 오후 제주도청에서 '스마트 관광 섬' 구축을 위한 업무협약을 체결하고 나서 관계자들돠 함께 기념촬영을 하고 있다. 2016.2.12 khc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2016/02/12 16:03 송고 #이동통신업체 #지방자치단체장 '오늘부터 개량백신 접종 시작'…60세미만도 잔여백신 접종가능 10-11 09:57 '감사원 국감, 시작 9분만에 파행'…비어있는 의원석 10-11 10:45 '가을 위에 내려앉은 겨울'…태백 만항재 10-11 10:22 후나코시 다케히로 日 외무성 국장, 한일국장급협의 참석 10-11 10:29 코스피 장중 2,170대로 뒷걸음…원/달러 환율 1,430원대 10-11 09:29 댓글쓰기 맨위로 전체메뉴 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 사람들 인사 부고 동정 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 이슈돋보기 주요신문톱뉴스/사설 이 시각 헤드라인 날씨/재난 날씨 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이 본 뉴스 모바일 뉴스 모바일앱 모바일웹 비주얼뉴스 #흥 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷 맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 유튜브 연합뉴스 통통컬처 Korea Now 한반도N 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로2길 25 | 등록번호 문화, 나00009 | 등록일자 1980.12.29 | 발행일자 1980.12.29 | Tel. 02-398-3114 (C) Yonhapnews [대표이사] 성기홍 [편집인] 조채희 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 카카오스토리 서비스안내 전체보기 서비스안내 전체보기 닫기 연합뉴스 연합뉴스TV 인포맥스</t>
   </si>
   <si>
     <t>설연휴 제주도 국제크루즈 관광객 방문 잇따라 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 설연휴 제주도 국제크루즈 관광객 방문 잇따라 파이낸셜뉴스입력 2016.02.08 09:18수정 2016.02.08 09:18 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 설연휴 기간 대형 국제크루즈선이 제주를 잇달아 방문하면서 올해 크루즈관광이 호황을 보일 것으로 전망되고 있다. 8일 제주도에 따르면 제주항에는 지난 5일 스카이씨 골든 에라호를 시작으로 7일 코스타 세레나호, 8일 코스타 아틀란티카호 등 외국인 관광객 7500여명이 탑승한 국제크루즈선 3척이 잇따라 입항했다. 이에 따라 올해에는 500여회에 100만명이 제주를 찾을 것으로 전망하고 있다. 앞서 지난해 크루즈관광객은 메르스 영향 등으로 애초 계획보다 8만여명이 감소한 285회 62만명이 방문하는 데 그쳤다. 도는 항만운영 특별대책반을 편성·운영하고 한국해운조합 제주지부 등 유관기관과 유기적인 협조체계를 구축, 모든 크루즈선이 불편 없이 입·출항할 수 있도록 지원중이라고 밝혔다. jiany@fnnews.com 연지안 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
   </si>
   <si>
-    <t>제주도, 관광지 미착공·장기중단 건축물 건축허가 취소 | 아주경제 2022.10.04 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도, 관광지 미착공·장기중단 건축물 건축허가 취소 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도, 관광지 미착공·장기중단 건축물 건축허가 취소 기자정보, 기사등록일 입력 2016-02-01 13:14 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 아주경제 진순현 기자=제주도내 관광지 사업중 오랜 기간 방치돼 온 미착공·장기중단 건축물에 대해 철퇴가 내려진다. 제주도(지사 원희룡)는 지난 29일 관광지내 미착공 및 장기중단 건축물에 대한 건축허가를 취소했다. 도에서는 10만㎡ 이상인 관광사업, 온천개발사업, 관광개발사업과 관광지 및 관광단지 조성사업 등에 대한 건축 인·허가 업무를 추진하고 있다. 아울러 지난해 9월 말까지 허가된 187건 중 공사중단 2건, 공사 재개 1건, 사실상 미착수 3건, 미착공 5건 등 건축물 11건에 대해 미착공 사유 및 관리실태 등에 대한 조사를 실시했다. 관련기사제주, 올해 전기차 4000대 보급에 박차​‘제주도 살아보기’ 류승수와 조동혁의 혼을 쏙 배놓은 세 명의 처자 등장 그 결과 골조공사 중 일시 공사가 중단된 2건과 공사를 재개한 1건 등 3건을 제외한 8건에 대해 지난달 18일 청문 결과 3건은 건축주가 건축허가 취소를 해도 무방하다는 의견을 제출했고, 나머지 5건은 착공 의지를 표명하였으나 현재까지 착수 등을 하지 않은 상태다. 이에 따라 처분청에서 ‘건축법’ 제11조제7항에 따라 건축허가를 취소하는 것이 타당하다는 청문결과에 따라 건축허가 취소 처분을 하게 됐다. 도 관계자는 “올해 6월과 12월 2회에 걸쳐 미착공·장기중단 건축물에 해당되는 건축허가에 대해 적기에 착공 독려하거나 건축허가 취소 등 조치로 건축행정 건실화 대책에 만전을 기할 계획”이라고 밝혔다. 한편 이번 허가취소 된 건축물을 보면 그동안 건축 착공 독려 등 했으나 착공하지 않은 채 건축허가를 받은 후 짧게는 4년부터 길게는 9년이 경과된 미착공 건축물이 5건, 착공신고는 하였으나 사실상 공사 착수를 하지 아니한 장기중단 건축물 3건이다. 서귀포시 색달동 관광휴게시설 1건을 비롯해 제주시 하가리 문화집회시설 1건, 선흘·행원·김녕·하가리 2곳 포함 숙박시설 5건과 송당리 제1종 근린생활시설 1건 등 모두 8건·8만4183㎡(2만5465평)이다. #건축허가 #관광지 #미착공 #장기중단 #취소 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2제로코로나에 발 묶인 중국인…국경절 '즉흥바캉스' 대세로 3빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 4복지위 국감 화두는 '코로나·비대면·리베이트'... 경보제약 대표 등 증인출석 5투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 6내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 7尹 대통령 지지도 31.2%...'비속어 논란'에 4주 만에 하락세 1욜로인 줄 알았는데…월 570만원 버는 리치 싱글, 알뜰·부업족 더 많다 2빚 갚는데 월급 다 쓰겠네...뛰는 금리에 2년새 월상환액 2배 껑충 3내년부터 서울 택시 기본요금 1000원·호출료 최대 5000원 오른다 4환율 오르는데, 비자 카드 계속 사용해도 될까? 5​3년 연속 국감 불려가는 송호섭 스타벅스 대표... '서머 캐리백' 논란에 거취도 주목 6尹 정부 첫 국정감사 시작…소비자물가 동향 발표 7​8월 경기도 아파트 매매량 '역대 최저'…과천시 4건 1尹 대통령 지지도 31.2%...'비속어 논란'에 4주 만에 하락세 2김민석 "10~30대 사망원인 1순위 자살...코로나 이후 증가 현상 우려" 3삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 4감사원, '文 서면조사' 논란에 "노태우·김영삼‧이명박‧박근혜도 조사" 5이재명, 감사원 '文 서면조사' 통보에..."유신 공포정치 연상" 6합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 7서울시, 평양과 올림픽 공동유치에 28조원 추산… "꼼수 대북지원 여부 조사 필요" 1무비자입국 허용에 방한일본인 1000% '껑충'…관광시장 회복 '가속화' 2'임실엔가을'…치즈축제 열기 속 가을꽃 향연 3방한 일본인 200여명, 제주 드림타워 찾았다 4안성시, 남사당 바우덕이 축제 폐막‥.잊지 못할 추억 전해 5볼거리 먹거리 찍을거리 많은 전남 "사나흘 머물면서 즐기세요" 6대구 동구청, 동대구역 동고가교 방면 1차로 주행 가능 7가족·친구·외국인 3000명 함께…"걸으며 역사 배우는 시간" 1투자 혹한기의 역설…스타트업 M&amp;A 활발한 까닭 2과방위, 진통 끝 일반증인 명단 합의…이통3사 수장은 제외 3대기업까지 옥죄는 高금리...영업이익으로 이자도 못 낸다 4"화면 벗어나 몸으로 느낀다" 네이버웹툰 '문유', CGV 4DX로 개봉 56G 필수인 저궤도 위성통신 속도 내는 韓 정부·기업...원웹 "우리도 참가 희망" 6신차보다 비싼 중고 전기차···보조금보다 많은 웃돈 '돈벌이 악용' 7캐스퍼, ​출시 1년만에 누적 판매량 4만5000대···'경차 1위' 오늘의 1분 뉴스 신용 1억+전세대출 5억…月 이자 259만원 낸다 감사원 ‘文조사’ 통보 직후 당정은 정부조직개편 논의 3000명의 시민들 북적… “건강·추억 모두 챙겼죠” 10월 첫째 날 3대 지수 일제 상승 ​3년 연속 국감 불려가는 송호섭 스타벅스 대표 서학개미, 글로벌 증시 공포 속 '아찔한 베팅'…3Q 실적 발표 '변곡점' 보험대출 7%, 주담대 8%, 카드론 15% 금리 쇼크 머지 않았다 포토뉴스 마산해양신도시 인근 바다 물고기 떼죽음 제4354주년 개천절 경축식 김연아, '여신 등장' 3년 만에 열린 '뉴발란스 런온 서울' 아주 글로벌 中國語 English 日本語 Tiếng Việt 韩汽油价格每升下降约合人民币8.34元 No hurry in selling HMM to new company, not foreign company or private equity fund ムーディーズ、「韓国の輸出減少傾向、来年初めまで続く」と予想 Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 뛰는 금리에 2년새 월상환액 2배 껑충 내년부터 서울 택시 기본요금 4800원 합참 "북한, 동쪽으로 탄도미사일 발사...제원 분석 중" 삼성·포스코부터 5대 은행장까지···기업들 "나 떨고 있니" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
-  </si>
-  <si>
-    <t>제주도관광협회, 관광사업체 맞춤형 세무·회계교육 &lt; 한줄뉴스 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:14 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 [날씨] 제주, 시간당 20mm 내외 강한 비…기온 큰 폭으로 ‘뚝↓’ 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 관광사업체 맞춤형 세무·회계교육 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 한줄뉴스 제주도관광협회, 관광사업체 맞춤형 세무·회계교육 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.02.01 16:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 지난 1월29일 진행된 세무.회계 1기 교육과정. ⓒ제주의소리 제주도내 관광사업체의 경쟁력 향상에 도움을 주기 위한 맞춤형 세무·교육 프로그램이 진행되고 있어 눈길을 끈다.제주도관광협회(회장 김영진)와 제주도 인재개발원(원장 김영주)은 도민사회 교육의 일환으로 도내 관광사업체를 대상으로 세무·회계 1기 교육과정을 진행하고 있다.지난 1월29일 진행된 첫 강좌에서는 국세공무원교육원 이상헌 교수와 장영일 교수를 초빙, 부가가치세 및 종합소득세 실무에 대한 교육이 진행됐다. 4시간 동안 진행된 이날 강좌에서는 참가자들의 업무 관련 궁금증을 해결해주는 질의응답을 통해 교육 만족도를 높였다.관광협회는 앞으로 도내 관광사업체의 건전한 납세의무 질서 확립과 대외 경쟁력 신장을 위해 오는 3월까지 맞춤형 세무·회계과정을 진행할 예정이다.또 향후 경영환경 개선을 위한 세무·회계·관광기본지식·마케팅 교육 및 회사 경영 노하우 컨설팅도 지원할 예정이다.문의=제주도관광협회 기획팀(064-741-8755) 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>제주도 의료관광지원협의회 위원위촉 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-04 10:06 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도 의료관광지원협의회 위원위촉 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도 의료관광지원협의회 위원위촉 지화 승인 2016.02.01 10:53 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도에서는 제주특별자치도 보건의료특례 등에 관한 조례 및 제주특별자치도 의료관광지원협의회 운영규칙에 따라 제4기 제주특별자치도 의료관광지원협의회 위원을 위촉(1월 29일)하고 위촉장 수여 및 회장(이승희 위원), 부회장(김신효 위원)을 호선으로 선출했다. 협의회 구성은 13명(당연직 1, 위촉직 12)으로 임기는 2년(2016. 1. 29∼2018. 1. 28) 임 ○ 의료관광 협력기관을 대표하는 자 5명 ○ 의료관광관련 전문가 3명 ○ 의료단체를 대표하는 자 2명 ○ 의료관광 관련업체 및 전문컨설팅사 2명 ○ 의료관광 업무 담당공무원 1명 앞으로 의료관광지원협의회는 오늘부터 2년 동안 의료관광 활성화를 위한 효율적 정책 발굴 및 타시도와 차별화된 의료관광 모델 개발, 의료산업 인프라 구축을 위한 각종 추진사업, 체계적 시스템 구축방안 모색 등 외국인환자 유치 사업추진에 대하여 심의를 하게 된다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1옥천군, 제35회 지용제 둘째 날 ‘제19회 군민 한마음 노래자랑 &amp;향수 콘서트’ 개최 2[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 3나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 4옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 5[인터뷰] 『아프지 않은 사랑이 어디 있으랴』 첫 산문집 출간한 이은봉 시인! 6단양 대가초,“별이 빛나는 사제동행 힐링캠프”실시 7[영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 8‘천안흥타령춤축제 2022’ 86만 명 시민 열광 속 폐막 9옥천군, 제35회 지용제 셋째 날 풍경! 10[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 최신기사 볼거리 풍성한 2022제천한방바이오박람회 민선8기 제천시장 공약 평가 자문위원회 개최 하동군 옥종면민의 날 및 면민체육대회 4년만에 성료 하동읍민 화합 한마당 잔치 성황리 개최 황갑선 회장,하동군장학재단, 9년째 통큰 장학기금 기탁 하동군, 스피드 행복민원 서비스 시행 정성이 피어나는 생명의 꽃 제40회 금산인삼축제 개막! 오늘의 동영상 [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 [영상 / 포토] 옥천군, 제35회 지용제 ‘시(詩)끌북적 문학축제’의 마지막 날 옥천군, 제35회 시(詩)끌북적 문학축제의 ‘다시 지용의 고향에서’로 초대합니다 순창군, 순창장류축제 유튜브크리에이터들과 함께 유튜브로 홍보 강화 [영상뉴스] 옥천군 제35회 지용제 ‘詩끌북적 문학축제' 팡파르~ 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
-  </si>
-  <si>
-    <t>제주도 제4기 의료관광지원협의회 출범...회장 이승희씨 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-04 10:02 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 제4기 의료관광지원협의회 출범...회장 이승희씨 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 제4기 의료관광지원협의회 출범...회장 이승희씨 원성심 headlinejeju@headlinejeju.co.kr 승인 2016.02.01 12:54 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 1일 제4기 제주특별자치도 의료관광지원협의회 위원을 위촉하고, 회장에 이승희씨, 부회장에 김신효씨를 각각 선출했다고 밝혔다.협의회 위원은 의료관광 협력기관 및 전문가 등 13명으로 구성됐는데, 임기는 2년이다.의료관광 활성화를 위한 효율적 정책 발굴 및 타시도와 차별화된 의료관광 모델 개발, 의료산업 인프라 구축을 위한 각종 추진사업, 체계적 시스템 구축방안 모색 등 외국인환자 유치 사업추진에 대한 심의 등의 역할을 맡는다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주형 구직청년 재난지원금, 8365명에 42억원 지급 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 제주, JDC 지방세 감면율 축소...착한 임대인 세제감면 연장 제주, 도시주거환경정비 기본계획 첫 수립...재건축 예정구역 지정 설왕설래 說往說來 제주, 초등 돌봄교실 '오후 8시까지' 운영계획에 노조 반발...왜? 사건사고 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 배우 곽도원, 제주서 음주운전 적발...공익광고 송출 중단 많이 본 뉴스 실시간 댓글 1 공익제보 사실로 밝혀졌으나...신고자는 4년째 외로운 싸움 2 "사람에게 가장 필요한 것은, 사랑이죠" 임피제 신부님 추모음악회 3 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 4 서귀포 읍면 6개지구, 지적재조사지구 경계확정 통지 5 제1회 국제농기계 전동화·자율주행 엑스포, 내달 8~10일 개최 6 제9회 전국 노인 게이트볼 대회, 제주선수단 첫 우승 7 [강철수의 포토 에세이] 제주와 인연 깊은 강진만 끝자락 마량항 8 서귀포시 동부보건소, '찾아가는 노인 결핵검진' 실시 9 꼭 필요한 장애인에게 장애인주차표지 발급 10 가을 골프시즌 알리는 KLPGA 대회 제주서 개최 1 묘산봉관광지 개발 에 앞서 일주동로에서 관광지까지의 현행 왕복 2차선도로 부터 당장 4차선이상의 도로를 확보 하는것과 주변 인근도로확보가 우선시 되어야하며 주변 경관정비또한 힘써야 할것입니다 2 언론 국회 종교단체 행정관청(고용노동부 지방노동위원회 금감원 국세청 국가인권위원회 국가권익우원회 등)에 억울함과 부당함을 호소해도 외면당한다. 내가 삶을 잘못 살아서일까 아님 대기업을 상대로 무모한 행동을 해서일까? 아니면 거짓말을 해서일까? 이런 어려움과 고통을 당하는이유는 삼성보다 더한 교보생명의 노조탄압결과이다. 언론에 알려진 교보생명과 회사내에서 벌어지는 갑질과 횡포는 상상이상이다. 직원들 위협하여 징계자료를 조작하고 위조하고 법인세를 탈루(국세청 21.1월 신고-아직도 서울지방국세청 조사4국에서는 조사중 이라고만 한다) 회장과 임원보수도 주주총회 이사회 이사회 산하 보수의원회 의결없이 지급하다 노조위원장이 지적하고 21.10월 금융감독원 지적을 당하고 나서야 보수의원회 의결을 거친다. 그래도 법인세법 위반이다. 이런 기본적인 사실도 모르는 곳이 교보생명이다. 산업안전보건법에 의한 산업안전보건위 미개최 신고로 과태료를 부과받았고 3 이런 분들을 보호하지 못하는 진짜 이유가 있다 법으로 보호해줘야 한다는 말도 맞다 그러나 그보다는 조직 내 사람들이 문제이다 이런 분들을 동료들이 먼저 보호하려 해야 하는데 동료들은 다 자기 먹고 살 생각만 한다 노조는 뭐하나. 이런데 자극 나서야지 4 아니 불법주정차 안한다면서ㅋㅋ 주민체육대회때 다 불법주차 아닌가? 삼양초 주변으로 차 둘러쌓여서 난리도 아니었는데 ㅋㅋ 불법주차 않하기?ㅋ 5 오랜시간 기억 할겁니다. 그리고 간단한것 부터 실천해야 겠습니다. 좋은글 감사합니다. 6 현장에서의 음악적 감동과 임신부님이 우리에게 전하는 메시지까지 전달되네요. 같은 공간에 함께 있었던 것만으로도 감동입니다. 7 제발 고가도로 같은걸로 신호안받고 바로 보내는걸로 만들어줘 8 보존관리지구 임야는 소유주가 아무 경영계획도 할 수 없어서 전혀 소득이 없는데 종합합산 고율의 세율을 적용한다는 것이 납득이 안갑니다. 법령을 수정 보완해야 할 여지가 있다고 봅니다. 9 축하합니다. 대단하십니다. 부럽습니다~~~ 10 문재인 민주당이 무능극치 때문에 대한민국 국민들 화병으로 죽는다 세계에서 가장 번잡한 제주공항 이다 대형사고 나기 일보직전이다 국가에서 확정한 국책사업 이다 더이상 무능극치 때문에 대한민국 국민들 죽는다 화끈하게 일하는 윤석렬 대통령 처음본다 화이팅입니다 윤석렬 대통령! 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+    <t>KT-제주도, 와이파이 프리 ‘스마트 관광섬’ 조성-국민일보 시사 시사 &gt; 전체기사 KT-제주도, 와이파이 프리 ‘스마트 관광섬’ 조성 입력 : 2016-02-12 09:59 트위터로 퍼가기 페이스북으로 퍼가기 구글로 퍼가기 인쇄하기 글자 크게 글자 작게 KT는 제주특별자치도와 함께 ‘제주 스마트 관광섬 구축을 위한 업무협약’을 체결했다고 12일 밝혔다. KT그룹은 225억원 규모를 투자해 스마트 관광섬 인프라를 구축한다는 계획이다. 먼저 KT는 5년간 143억원을 투자해 ‘기가 와이파이’ ‘기가 인터넷’ ‘기가 비콘’ 등 기가 인프라 기반의 네트워크 서비스를 제공키로 했다. 주요 관광지와 공공장소에 관광객이 무료로 사용할 수 있는 기가 와이파이 네트워크 1100여곳이 구축될 예정이다. KT 그룹사인 BC카드, KTH, KT IS와 공동으로 지리정보시스템(GIS) 기반의 스마트관광 플랫폼 구축에도 나선다. 김유나 기자 spring@kmib.co.kr GoodNews paper ⓒ 국민일보(www.kmib.co.kr), 무단전재 및 수집, 재배포금지 당신이 좋아할 만한 기사 항균제 듣지 않는 소아 ‘마이코플라즈마 폐렴’ 주의해야 ‘네카오’ 또 신저가…카카오 5만, 네이버 16만원선 붕괴 “발렛 직원이 준 차 몰았다”…신혜성, 음주운전에 절도 혐의까지 생방송 중 러 미사일 ‘슉’… BBC기자, 급히 대피 [영상] 노벨상 수상자 버냉키 “우크라 전쟁, 강달러 등 세계적 사건 주의해야” “욱일기 다시 한반도에 걸릴 수도” 더 치고 나간 이재명 푸틴 보복 나섰나… 놀이터 떨어진 미사일 [영상] ‘90년대 강남 큰 손’ 조춘자, 또 사기 행각…징역 7년 北 리설주, 미사일 발사장에 첫 모습…귀 막고 얼굴 찡그려 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 실시간 뉴스 의정부서 14~16일 ‘2022 아시아 모델 페스티벌’ 열려 경남도, 가을 행락 철 야영 장 인명 사고 예방 총력 올 무역적자 327억 달러…반도체·대중 수출 ‘먹구름’ 아시아엔 적수 없다… 韓펜싱 U-23 亞선수권 7연속 우승 이동환 고양시장 “일산, 신도시 선도지역 지정 조건 가장 좋아” 4조원대 인천e음 대행사 코나아이·신한·KT…3파전 치열 ‘지적장애인 살인·암매장’ 일당, 판결 불복해 항소 감사원 국감, “착하게 좀 살라” 말폭탄 속 9분만에 중지 스물네살 미드필더 음웨푸, 은퇴 선언… ‘유전성 심장 질환’이 원인 尹 “청년에 임대주택 줄 게 아니라 내 집 마련 도와야” 尹 “청년들이 미래 설계할 수 있도록 희망의 사다리 놔야” 민주 “여가부 폐지 대신 성평등가족부로 확대해야” 이재명, 여권 겨냥 “해방 후 친일파 행태와 다를 바 없다” 딤프, ‘K-뮤지컬’ 미국 OTT 통해 전 세계에 선보여 이예람 사건 녹취록 조작 의혹 변호사 “국민참여재판 받겠다”</t>
+  </si>
+  <si>
+    <t>제주도, 관광지 미착공·장기중단 건축물 건축허가 취소 | 아주경제 2022.10.11 화요일 글로벌 아주경제 中文 English 日本語 Tiếng Việt 옌타이 로그인 회원가입 구독신청 기사제보 지면보기 뉴스레터 아주경제를 시작페이지로 아주경제 제주도, 관광지 미착공·장기중단 건축물 건축허가 취소 전체메뉴 중국 산업 재테크 경제 정치 사회 국제 포토 문화·연예 오피니언인사이터즈 영상AJU TV 검색버튼 공유하기 전체메뉴 중국 마켓 경제 산업 차이나포커스 일반 정치 대통령실 외교 북한·국방 국회 정당 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 사회 기획취재 법원 검찰 사건사고 일반 재테크 금융 증권 부동산 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 경제 국내경제(정책) 포토 포토뉴스 광화문 갤러리 화보 문화·연예 문화 여행·레저 연예 스포츠 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 아주경제적인1분 아주 돋보기 1020놀이터 아주국방연구소 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 검색 검색 버튼 제주도, 관광지 미착공·장기중단 건축물 건축허가 취소 기자정보, 기사등록일 입력 2016-02-01 13:14 도구모음 기사 공유 인쇄 글자크기 줄이기 글자크기 키우기 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 아주경제 진순현 기자=제주도내 관광지 사업중 오랜 기간 방치돼 온 미착공·장기중단 건축물에 대해 철퇴가 내려진다. 제주도(지사 원희룡)는 지난 29일 관광지내 미착공 및 장기중단 건축물에 대한 건축허가를 취소했다. 도에서는 10만㎡ 이상인 관광사업, 온천개발사업, 관광개발사업과 관광지 및 관광단지 조성사업 등에 대한 건축 인·허가 업무를 추진하고 있다. 아울러 지난해 9월 말까지 허가된 187건 중 공사중단 2건, 공사 재개 1건, 사실상 미착수 3건, 미착공 5건 등 건축물 11건에 대해 미착공 사유 및 관리실태 등에 대한 조사를 실시했다. 관련기사제주, 올해 전기차 4000대 보급에 박차양창윤 “도민우선 섬김 캠프” 시동 그 결과 골조공사 중 일시 공사가 중단된 2건과 공사를 재개한 1건 등 3건을 제외한 8건에 대해 지난달 18일 청문 결과 3건은 건축주가 건축허가 취소를 해도 무방하다는 의견을 제출했고, 나머지 5건은 착공 의지를 표명하였으나 현재까지 착수 등을 하지 않은 상태다. 이에 따라 처분청에서 ‘건축법’ 제11조제7항에 따라 건축허가를 취소하는 것이 타당하다는 청문결과에 따라 건축허가 취소 처분을 하게 됐다. 도 관계자는 “올해 6월과 12월 2회에 걸쳐 미착공·장기중단 건축물에 해당되는 건축허가에 대해 적기에 착공 독려하거나 건축허가 취소 등 조치로 건축행정 건실화 대책에 만전을 기할 계획”이라고 밝혔다. 한편 이번 허가취소 된 건축물을 보면 그동안 건축 착공 독려 등 했으나 착공하지 않은 채 건축허가를 받은 후 짧게는 4년부터 길게는 9년이 경과된 미착공 건축물이 5건, 착공신고는 하였으나 사실상 공사 착수를 하지 아니한 장기중단 건축물 3건이다. 서귀포시 색달동 관광휴게시설 1건을 비롯해 제주시 하가리 문화집회시설 1건, 선흘·행원·김녕·하가리 2곳 포함 숙박시설 5건과 송당리 제1종 근린생활시설 1건 등 모두 8건·8만4183㎡(2만5465평)이다. #건축허가 #관광지 #미착공 #장기중단 #취소 좋아요0 화나요0 추천해요0 ©'5개국어 글로벌 경제신문' 아주경제. 무단전재·재배포 금지 0개의 댓글 0 / 300 등록 댓글 더보기 로그인 후 댓글작성이 가능합니다.로그인 하시겠습니까? 취소 로그인 닫기 댓글을 삭제 하시겠습니까? 취소 삭제 닫기 이미 참여하셨습니다. 확인 닫기 이미 신고 접수한 게시물입니다. 확인 닫기 신고사유 불법정보 개인정보 노출 특정인 비방/욕설 같은 내용의 반복 게시 (도배) 기타(직접작성) 0 / 100 취소 확인 닫기 신고접수가 완료되었습니다. 담당자가 확인후 신속히 처리하도록 하겠습니다. 확인 닫기 차단해제 하시겠습니까? 취소 해제 닫기 사용자 차단 시 현재 사용자의 게시물을 보실 수 없습니다. 취소 차단 닫기 실시간 인기 종합 경제 정치 사회 모바일 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3中 20차 당대회 앞두고 코로나 또 '비상'...국경절 연휴 영향 4국경절 연휴 마친 증시…호재 뒤늦게 반영할까 5尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 69월 CPI·FOMC 의사록·어닝시즌에 "불안감 증폭" 7세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 1"2023년까지 물량 털어라"…하반기 분양물량 급증, 집값 하방요인↑ 22년 만에 독이 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 3세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5버거에 꽂힌 유통·식품업계 3세들 6창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 7'판매'보다 '모객' 집중... 전시에 꽂힌 유통가 1尹 지지율 32%·한 주 만에 0.8%p↑…'文 감사원 조사'로 비속어 논란 희석 2'일제고사' 부활하나...尹 "줄 세우기 비판 뒤에 숨어 아이들 교육 방치안돼" 3커지는 유승민 존재감 vs 견제구 던지는 안철수·나경원…빨라지는 與 차기 당대표戰 4'고작 2%' 과학기술 公기관 '장애인 고용률'···부담금만 331억 지출 5​'국감 데뷔' 이복현…공매도·전산장애·고위험상품 3대 허들 기다린다 6김두관 의원 "코레일 근무태만 천태만상 심각" 7'핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달라진 네 가지 포인트 1쌀쌀한 날씨 계속…찬바람 불어 체감온도 '뚝' 2감사원 국감 D-1...여야 '강대강' 격돌 예고 3베트남문화축제 광주에서 열려...위로하고 다짐하고 "오늘은 즐거운 날" 4대구 달성군, 취임 100일 최재훈 군수… 군민이 빛나는 달성 5강원도관광재단, 전국 최초 워케이션 상담회 개최 6前우체국 집배원 유용식씨, 퇴직 후에도 이웃사랑 실천 7수원시, 3년 만에 대면으로 열린 '제59회 수원화성문화제' 성료 1세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2버티거나 매각하거나…M&amp;A 스타트업 면면은 3"내년 '아크' 상용화 '박차'…최대한 빠른 시일 내 추진할 것" 4원자재값·환율·전기요금 '高高'···시멘트업계, 잇단 악재에 속앓이 5창원 LG 스마트파크 가보니…"공정 자동화에 13초마다 냉장고 1대 생산" 6세계 3대 디자인 시상식서 존재감 키우는 韓 IT기업들 7숏폼 '틱톡', 해외 향한 韓기업 광고 수단으로 눈길 오늘의 1분 뉴스 세계 경기위축에 실적 곤두박질···미·중 싸움에 韓 반도체 멍든다 2년만에 독 된 '금리효과'..."갭투자 쏠렸던 지역부터 투매 나올 것" 경기 불황에…3분기 스타트업 M&amp;A 46건 '올해 최대' 반도체 중국 수출 통제 여파 급락…나스닥 2년래 최저 '핵버튼 노골화' 北, 보름새 7차례 도발...이전과 달리진 네 가지 포인트 존재감 키우는 유승민 vs 견제나선 안철수·나경원…與 차기 당권 경쟁 우크라 키이우, 출근길 피투성이 불바다…푸틴 "보복 공격" 인정 포토뉴스 첫눈으로 하얗게 변한 지리산 천왕봉 가을 정취 만끽하는 시민들 무주 덕유산의 상고대 100만 인파가 바라본 서울세계불꽃축제 2022 아주 글로벌 中國語 English 日本語 Tiếng Việt 日本旅游走起！ Hyundai Mobis' new infotainment platform debuts at trade fair in Germany 尹大統領の支持率32%・・・1週間で0.8%p↑ Samsung tuyên bố trung lập carbon vào năm 2050 주요기사 미·중 싸움에 韓 반도체 멍든다 버냉키 등 美경제학자 3인 노벨경제학상 바이든 "러시아, 부당한 공격 중단해야…美 우크라 계속 지원" 대통령실 "한미일 연합훈련, 文정부 합의...'친일 프레임' 의아" 중국 마켓 경제 산업 차이나포커스 일반 국제 경제·마켓 기업 인물·화제 일반 기획·연재 NNA가 본 아시아 산업 기업 조선·철강 유통 제약·바이오 IT·모바일 벤처 재테크 금융 증권 부동산 경제 국내경제(정책) 정치 대통령실 외교 북한·국방 국회 정당 사회 기획취재 법원 검찰 사건사고 일반 문화·연예 문화 여행·레저 연예 스포츠 포토 포토뉴스 광화문 갤러리 화보 보도자료 경제 정치사회 금융 증권 부동산 산업 성장기업 IT·모바일 생활경제 지역 랭킹뉴스 기자뉴스 1분뉴스 아주 돋보기 아주국방연구소 1020놀이터 이벤트·행사 지면보기 뉴스레터 패밀리사이트/SNS 인사이터즈 아주TV 아주로앤피 오디오클립 이코노믹데일리 회사소개 구독신청 개인정보취급방침 청소년보호정책 저작권규약 고충처리 채용안내 기사제보 사이트맵 RSS 인터넷신문위원회 (주)아주뉴스코퍼레이션 정기간행등록번호 : 서울 아 00493 등록일자 : 2008년 01월10일 제호 : 아주경제 발행인·편집인: 곽영길 주소 : 서울특별시 종로구 종로 1길 42(수송동 146-1) 이마빌딩 11층 발행일자 : 2007년 11월 15일 청소년보호책임자 : 이재호 전화 : 02-767-1500 아주경제는 인터넷신문 위원회 윤리강령을 준수합니다. 아주경제의 모든 콘텐츠(기사)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright ⓒ 아주경제 All rights reserved. 모바일 버젼 공유하기 페이스북 트위터 카카오톡 네이버 밴드 웨이보 URL복사 닫기 기사 이미지 확대 보기 닫기 페이지 상단으로</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광사업체 맞춤형 세무·회계교육 &lt; 한줄뉴스 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 12:04 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 업체는 반발, 도민은 무관심...체면 구긴 버스 준공영제 용역 ‘잠정 중단’ 흔들리던 제주돌문화공원 정상화 시작...인위적 조형물 철거 윤석열, 일제고사 부활..."학업성취도 전수평가, 모든학교 참여" 지난 8월, 제주 가파도서 발견된 신체 일부 정체 ‘오리무중’ 제주 민관협력의원 최대 난제 의원·약국 임대료 대폭 인하 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 제주도관광협회, 관광사업체 맞춤형 세무·회계교육 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 한줄뉴스 제주도관광협회, 관광사업체 맞춤형 세무·회계교육 기자명 좌용철 기자					(ja3038@hanmail.net) 입력 2016.02.01 16:09 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 ▲ 지난 1월29일 진행된 세무.회계 1기 교육과정. ⓒ제주의소리 제주도내 관광사업체의 경쟁력 향상에 도움을 주기 위한 맞춤형 세무·교육 프로그램이 진행되고 있어 눈길을 끈다.제주도관광협회(회장 김영진)와 제주도 인재개발원(원장 김영주)은 도민사회 교육의 일환으로 도내 관광사업체를 대상으로 세무·회계 1기 교육과정을 진행하고 있다.지난 1월29일 진행된 첫 강좌에서는 국세공무원교육원 이상헌 교수와 장영일 교수를 초빙, 부가가치세 및 종합소득세 실무에 대한 교육이 진행됐다. 4시간 동안 진행된 이날 강좌에서는 참가자들의 업무 관련 궁금증을 해결해주는 질의응답을 통해 교육 만족도를 높였다.관광협회는 앞으로 도내 관광사업체의 건전한 납세의무 질서 확립과 대외 경쟁력 신장을 위해 오는 3월까지 맞춤형 세무·회계과정을 진행할 예정이다.또 향후 경영환경 개선을 위한 세무·회계·관광기본지식·마케팅 교육 및 회사 경영 노하우 컨설팅도 지원할 예정이다.문의=제주도관광협회 기획팀(064-741-8755) 좌용철 기자 ja3038@hanmail.net 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 5 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 6 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 7 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 8 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 9 제주시, 고질체납과 비과세·감면차량 일제조사 10 10억원 투입 제주 마을어장에 종자 91만 마리 방류 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 4 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 5 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 한글날 맞이 ‘아름다운 우리말 상표’, 제주어 ‘배또롱’ 선정 1 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 2 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 3 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 4 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 5 못간다 6 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 7 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? 8 해녀들 신나겠네 ㅋㅋㅋㅋ 돈 많이 버소 9 일본에서 벗어나는 가장 기초적인 일은 법정용어를 제대로 한글로 바꾸는 것부터 시작이다. 지금까지 이런 말이 권위적이고 위압적이라 자신의 기득권을 위해 국회의원이든 도의원이든 그냥 써먹고 있었다. 아니면 전혀 의식이 없던가. 몇개만 바꾸지 말고 다 바꾸어라. 10 이런 일본식 명칭들. 일반 사람들보다 주로 공공기관에서만 썼던 것들이죠. 즉 전문용어? 뭔가 어려운 느낌으로 권위 있는척 하려고 지금도 많이 쓰죠. 특히 의학이나 법정용어들 + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 의료관광지원협의회 위원위촉 - 불교공뉴스 × 전체기사 종합 지역뉴스 전체 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 서울시 대구시 강원도 인천시 경기도 광주시 전라남도 전라북도 부산시 울산시 경상남도 경상북도 제주도 충주시 제천시 괴산군 부여군 논산시 공주시 천안시 안동시 담양군 청양군 여수시 금산군 예산군 아산시 고양시 횡성군 증평군 성남시 하동군 속초시 음성군 순천시 경주시 광양시 나주시 화순군 목포시 신안군 무안군 종교 전체 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 전체 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈.기획 연합뉴스 전체 엑셀데이터 선거정보 경제일반 TV동영상 자동생성기사 UPDATED. 2022-10-11 12:13 (화) 로그인 회원가입 보도자료 모바일웹 전체 종합뉴스 지역뉴스 충청남도 충청북도 청주시 옥천 보은 영동 대전시 세종시 계룡시 청양군 성남시 종교소식 불교 천주교 기독교 종교연합 기타종교 사회 문화 교육 우리 선생님 충북교육 충남교육 대전교육 일반교육 세종교육 국제 이슈·기획 연예뉴스 검색버튼 기사검색 검색 이전 다음 제주도 의료관광지원협의회 위원위촉 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 지역뉴스 제주도 제주도 의료관광지원협의회 위원위촉 지화 승인 2016.02.01 10:53 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 이 기사를 번역합니다 한국어 영어 일본어 중국어 프랑스어 스페인어 러시아어 인도네시아어 × [불교공뉴스-제주도] 제주특별자치도에서는 제주특별자치도 보건의료특례 등에 관한 조례 및 제주특별자치도 의료관광지원협의회 운영규칙에 따라 제4기 제주특별자치도 의료관광지원협의회 위원을 위촉(1월 29일)하고 위촉장 수여 및 회장(이승희 위원), 부회장(김신효 위원)을 호선으로 선출했다. 협의회 구성은 13명(당연직 1, 위촉직 12)으로 임기는 2년(2016. 1. 29∼2018. 1. 28) 임 ○ 의료관광 협력기관을 대표하는 자 5명 ○ 의료관광관련 전문가 3명 ○ 의료단체를 대표하는 자 2명 ○ 의료관광 관련업체 및 전문컨설팅사 2명 ○ 의료관광 업무 담당공무원 1명 앞으로 의료관광지원협의회는 오늘부터 2년 동안 의료관광 활성화를 위한 효율적 정책 발굴 및 타시도와 차별화된 의료관광 모델 개발, 의료산업 인프라 구축을 위한 각종 추진사업, 체계적 시스템 구축방안 모색 등 외국인환자 유치 사업추진에 대하여 심의를 하게 된다. 저작권자 © 불교공뉴스 무단전재 및 재배포 금지 지화 다른기사 보기 기사가 마음에 드셨나요? 불교공뉴스는 창간 때부터 클린광고 정책을 유지하고 있습니다. 이것은 작은 언론으로서 쉬운 선택은 아니었습니다. 그럼에도 불구하고 불교공뉴스는 앞으로도 기사 읽는데 불편한 광고는 싣지 않겠습니다. 불교공뉴스는 아이 낳고 기르기 좋은 세상을 만드는 대안언론입니다. 저희 기사가 마음에 드셨다면, 좋은 기사 후원하기에 동참해주세요. 여러분의 기사후원 참여는 아름다운 나비효과를 만들 것입니다. 불교공뉴스 좋은기사 후원 계좌안내 농협 301-0234-1422-61 (손경흥 / 불교공뉴스) ※ 소중한 후원금은 더 좋은 기사를 만드는데 쓰겠습니다. 인기기사 1[영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! 2나태주풀꽃문학관, 제5회 풀꽃문학제 ‘두 사람’ 개최 3증평군, 트로트 가수 박군 홍보대사로 위촉 4[영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 5[영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! 6[영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! 7영동경찰서, 지역치안협의회 정기회의 개최 8계룡세계군문화엑스포 7일 개막 9부여군, “제68회 백제문화제 순항” 10[카메라 뉴스] 2022 괴산세계유기농산업엑스포 개막식 최신기사 천태산 은행나무에 바치는 자연 시편 『천년 동무 천년 등불』 ‘시와에세이’ 발간 옥천 ㈜더조은숲, 취약계층을 위한 꾸준한 연탄 나눔 한국농촌지도자옥천군연합회, 사랑의 쌀 기부 영동·김천·무주, 올해는 삼도봉 정상에서 변치않는 우정 확인! 영동군, 2022-2023절기 어르신 독감예방접종 12일부터 연령별 순차접종 영동군, AI·IOT기반 어르신건강관리 서비스 ‘만족도UP, 건강UP’ 옥천군 보건소 2022년‘비만예방의 날’기념 캠페인 실시 오늘의 동영상 [영상뉴스] 영동군, 제53회 영동난계국악축제 &amp; 제11회 대한민국 와인축제 폐막! [영상뉴스] 유성구, 야경이 아름다운 제13회 ‘유성 국화전시회’ [영상뉴스] 제53회 영동난계국악축제’와‘제11회 대한민국 와인축제’개막! [영상 / 포토] 충남 부여에서 열리는 제68회 백제문화제! [영상뉴스] 2022 괴산 세계 유기농산업 엑스포 건강한 열풍 개장! [영상뉴스] ‘2022 괴산세계유기농산업엑스포’ D-day 1일 [불교공뉴스·TV 힐링대담] JB가든센터 '대림묘목농원' 김정범 대표 [포토뉴스] 지용제, 3년 만에 구읍을 詩끌북적하게 하며 성료 포토뉴스 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 충청북도 옥천군 지용로 142 대성사 사업자명 : 손경흥 사업자번호 : 688-03-01080 대표전화 : 043-733-5559 팩스 : 043-733-5559 명칭 : 불교공뉴스 제호 : 불교공뉴스 등록번호 : 충북아 00049 등록일 : 2010-11-01 발행일 : 2010-11-11 발행인 : 혜철스님(손경흥) 편집인 : 손경흥 청소년보호책임자 : 이한배 불교공뉴스 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 불교공뉴스. All rights reserved. mail to webmaster@bzeronews.com 위로</t>
+  </si>
+  <si>
+    <t>제주도 제4기 의료관광지원협의회 출범...회장 이승희씨 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 12:12 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도 제4기 의료관광지원협의회 출범...회장 이승희씨 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 정치/행정 제주도 제4기 의료관광지원협의회 출범...회장 이승희씨 원성심 headlinejeju@headlinejeju.co.kr 승인 2016.02.01 12:54 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도는 1일 제4기 제주특별자치도 의료관광지원협의회 위원을 위촉하고, 회장에 이승희씨, 부회장에 김신효씨를 각각 선출했다고 밝혔다.협의회 위원은 의료관광 협력기관 및 전문가 등 13명으로 구성됐는데, 임기는 2년이다.의료관광 활성화를 위한 효율적 정책 발굴 및 타시도와 차별화된 의료관광 모델 개발, 의료산업 인프라 구축을 위한 각종 추진사업, 체계적 시스템 구축방안 모색 등 외국인환자 유치 사업추진에 대한 심의 등의 역할을 맡는다. &lt;헤드라인제주&gt;&lt;원성심 기자 / 저작권자 ⓒ 헤드라인제주 무단전재및 재배포 금지&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 서귀포시 '희망 소도리 발굴단' 출범...취약계층 사각지대 지원 제주도 실업급여 수급자↓...고용상황 회복세 전환 제주, 버스 준공영제 성과평가.개선 용역 중지...이유는? '15분 도시' 개념 제시한 세계적 석학, "제주도 상상이 현실로..." 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 서귀포시, 2022년 교통유발부담금 21억원 부과 3 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 4 세상을 웃게 만드는 친절 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 7 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 8 제주대, 지역 대학생 대상 AI자율주행 드론 워크숍 개최 9 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 10 안덕의용소방대, 전통민속축제 응급처치교육 체험장 운영 1 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 2 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 3 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 4 지역발전의 초석이 되었으면 한다 5 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 6 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 7 그럼 히든 아파트 405호실로 드론이 어떻게 배달해요? 드론이 아파트 현관문까지 들어와요? 웃기는 피자배달, 공간 없으면 아무 쓸모짝 없는 기계에요,, 드론이.... 8 TO RENEW www.headlinejeju.co.kr (Expires on 2022-10-09): https://webstationdomain.com/www.headlinejeju.co.kr/a/1665319610/v0 This ａｌｅｒｔ is to bring to your attention that your invoice number 210894565 is OVERDUE. www.headlinejeju.co.kr expiring on 2022-10-09* is SUSPENDED. Please complete payment ASAP to avoid any TERMINATION of service to www.headlinejeju.co.kr. Please note that if no payment is made in the next 3 business days, your data will be purged and deleted. TO RENEW www.headline 9 민주당 정치꾼 시절 당시 원희룡지사의 체급을 올려주기 싫어 제주 제2공항 반대했건만 막상 본인이 도지사가 되고 나니 자기치적으로 삼고 싶어 제2공항 추진하고 싶은데 과거에 반대했던 경력이 있어 지금 명분쌓고 있는 중입니다. 이게 오영훈지사의 속내입니다. 절대 이제 오영훈지사는 제주 제2공항 반대 안합니다. 그래서 민주당을 경제도 모르고 특히 글로벌 감각 전혀 없는 오로지 정치만 아는 자들이라 합니다. 민주당DNA로 인천공항깉은 스케일있고 글로벌한 프로젝투는 불가능했었을꺼다. 경부고속도로나 KTX도 훨씬 늦었을꺼다. 10 의미있는 좋은 행사입니다 수고 많았습니다 ~ 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
   </si>
 </sst>
 </file>
@@ -425,7 +581,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +603,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -457,6 +613,9 @@
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1">
@@ -465,9 +624,6 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1">
@@ -476,6 +632,9 @@
       <c r="B5" t="s">
         <v>5</v>
       </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1">
@@ -484,6 +643,9 @@
       <c r="B6" t="s">
         <v>6</v>
       </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1">
@@ -492,6 +654,9 @@
       <c r="B7" t="s">
         <v>7</v>
       </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1">
@@ -501,7 +666,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -512,7 +677,7 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -523,7 +688,7 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -534,7 +699,316 @@
         <v>11</v>
       </c>
       <c r="C11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
